--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos Compu DELL\Escritorio\MRV MINEM 1.0 Tercer Entregable-Mantenimientos\Enfoque excel\Excel enfoque electrificacion rural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDC6E75-7C93-41A2-8938-D8281E37750B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E5F4E1-794A-4AFD-8927-37619563DC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -17,9 +17,11 @@
     <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Lista_ER">Hoja2!$J$3</definedName>
     <definedName name="Lista_Mes">Hoja2!$C$3:$C$14</definedName>
     <definedName name="Lista_Region">Hoja2!$G$3:$G$5</definedName>
     <definedName name="Tabla_Anno">Hoja2!$A$4:$A$24</definedName>
+    <definedName name="Tabla_ER">Hoja2!$J$3:$K$3</definedName>
     <definedName name="Tabla_Mes">Hoja2!$C$3:$D$14</definedName>
     <definedName name="Tabla_Region">Hoja2!$G$3:$H$5</definedName>
   </definedNames>
@@ -51,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Año al que corresponde el registro.
 </t>
@@ -66,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Mes en el que se instalarón los Fotovoltaicos.
 </t>
@@ -81,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Región en la que se implementa.
 </t>
@@ -96,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cantidad de fotovoltaico instalados (Equivalente a hogares).</t>
         </r>
@@ -107,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Año</t>
   </si>
@@ -186,12 +188,27 @@
   <si>
     <t>Mes de inicio de operaciones</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UNIDAD ER</t>
+  </si>
+  <si>
+    <t>Unidad del fotovoltaico</t>
+  </si>
+  <si>
+    <t>Nª</t>
+  </si>
+  <si>
+    <t>Fotovoltaico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,18 +234,34 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -367,6 +400,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31E5FA7-23A0-48DD-9D5B-85C8A077B45F}">
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,9 +738,11 @@
     <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -716,8 +761,14 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -732,8 +783,12 @@
       <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="19"/>
+      <c r="H2" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2016</v>
       </c>
@@ -754,8 +809,15 @@
       <c r="F3" s="15">
         <v>750</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="18">
+        <f>VLOOKUP(H3,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2016</v>
       </c>
@@ -776,8 +838,15 @@
       <c r="F4" s="15">
         <v>435</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="18">
+        <f>VLOOKUP(H4,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2016</v>
       </c>
@@ -798,8 +867,15 @@
       <c r="F5" s="15">
         <v>684</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="18">
+        <f>VLOOKUP(H5,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2016</v>
       </c>
@@ -820,8 +896,15 @@
       <c r="F6" s="15">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="18">
+        <f>VLOOKUP(H6,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2016</v>
       </c>
@@ -842,8 +925,15 @@
       <c r="F7" s="15">
         <v>2560</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="18">
+        <f>VLOOKUP(H7,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2016</v>
       </c>
@@ -864,8 +954,15 @@
       <c r="F8" s="15">
         <v>3024</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="18">
+        <f>VLOOKUP(H8,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2016</v>
       </c>
@@ -886,8 +983,15 @@
       <c r="F9" s="15">
         <v>2560</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="18">
+        <f>VLOOKUP(H9,Tabla_ER,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="e">
         <f t="shared" si="0"/>
@@ -900,8 +1004,13 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="18" t="e">
+        <f>VLOOKUP(H10,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="e">
         <f t="shared" si="0"/>
@@ -914,8 +1023,13 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="18" t="e">
+        <f>VLOOKUP(H11,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="e">
         <f t="shared" si="0"/>
@@ -928,8 +1042,13 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="18" t="e">
+        <f>VLOOKUP(H12,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="e">
         <f t="shared" si="0"/>
@@ -942,8 +1061,13 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="18" t="e">
+        <f>VLOOKUP(H13,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="e">
         <f t="shared" si="0"/>
@@ -956,8 +1080,13 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="18" t="e">
+        <f>VLOOKUP(H14,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="e">
         <f t="shared" si="0"/>
@@ -970,8 +1099,13 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="18" t="e">
+        <f>VLOOKUP(H15,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="e">
         <f t="shared" si="0"/>
@@ -984,8 +1118,13 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="18" t="e">
+        <f>VLOOKUP(H16,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="e">
         <f t="shared" si="0"/>
@@ -998,8 +1137,13 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="18" t="e">
+        <f>VLOOKUP(H17,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1012,8 +1156,13 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="18" t="e">
+        <f>VLOOKUP(H18,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1026,8 +1175,13 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="18" t="e">
+        <f>VLOOKUP(H19,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1040,8 +1194,13 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="18" t="e">
+        <f>VLOOKUP(H20,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1054,8 +1213,13 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="18" t="e">
+        <f>VLOOKUP(H21,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1068,8 +1232,13 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="18" t="e">
+        <f>VLOOKUP(H22,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1082,8 +1251,13 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="18" t="e">
+        <f>VLOOKUP(H23,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1096,8 +1270,13 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="18" t="e">
+        <f>VLOOKUP(H24,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1110,8 +1289,13 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="18" t="e">
+        <f>VLOOKUP(H25,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1124,8 +1308,13 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="18" t="e">
+        <f>VLOOKUP(H26,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1138,8 +1327,13 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="18" t="e">
+        <f>VLOOKUP(H27,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1152,8 +1346,13 @@
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="18" t="e">
+        <f>VLOOKUP(H28,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1166,8 +1365,13 @@
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="18" t="e">
+        <f>VLOOKUP(H29,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1180,8 +1384,13 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="18" t="e">
+        <f>VLOOKUP(H30,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1194,8 +1403,13 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="18" t="e">
+        <f>VLOOKUP(H31,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1208,8 +1422,13 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="18" t="e">
+        <f>VLOOKUP(H32,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1222,8 +1441,13 @@
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="18" t="e">
+        <f>VLOOKUP(H33,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1236,8 +1460,13 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="18" t="e">
+        <f>VLOOKUP(H34,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1250,8 +1479,13 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="18" t="e">
+        <f>VLOOKUP(H35,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1264,8 +1498,13 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="18" t="e">
+        <f>VLOOKUP(H36,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1278,8 +1517,13 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="18" t="e">
+        <f>VLOOKUP(H37,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1292,8 +1536,13 @@
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="18" t="e">
+        <f>VLOOKUP(H38,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1306,8 +1555,13 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="18" t="e">
+        <f>VLOOKUP(H39,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1320,8 +1574,13 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="18" t="e">
+        <f>VLOOKUP(H40,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1334,8 +1593,13 @@
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="18" t="e">
+        <f>VLOOKUP(H41,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1348,8 +1612,13 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="18" t="e">
+        <f>VLOOKUP(H42,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1362,8 +1631,13 @@
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="18" t="e">
+        <f>VLOOKUP(H43,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1376,8 +1650,13 @@
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="18" t="e">
+        <f>VLOOKUP(H44,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1390,8 +1669,13 @@
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="18" t="e">
+        <f>VLOOKUP(H45,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1404,8 +1688,13 @@
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="18" t="e">
+        <f>VLOOKUP(H46,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1418,8 +1707,13 @@
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="18" t="e">
+        <f>VLOOKUP(H47,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1432,8 +1726,13 @@
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="18" t="e">
+        <f>VLOOKUP(H48,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1446,8 +1745,13 @@
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="18" t="e">
+        <f>VLOOKUP(H49,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1460,8 +1764,13 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="18" t="e">
+        <f>VLOOKUP(H50,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1474,8 +1783,13 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="18" t="e">
+        <f>VLOOKUP(H51,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1488,8 +1802,13 @@
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="18" t="e">
+        <f>VLOOKUP(H52,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1502,8 +1821,13 @@
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="18" t="e">
+        <f>VLOOKUP(H53,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1516,8 +1840,13 @@
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="18" t="e">
+        <f>VLOOKUP(H54,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1530,8 +1859,13 @@
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="18" t="e">
+        <f>VLOOKUP(H55,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1544,8 +1878,13 @@
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="18" t="e">
+        <f>VLOOKUP(H56,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1558,8 +1897,13 @@
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="18" t="e">
+        <f>VLOOKUP(H57,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1572,8 +1916,13 @@
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="18" t="e">
+        <f>VLOOKUP(H58,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1586,8 +1935,13 @@
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="18" t="e">
+        <f>VLOOKUP(H59,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1600,8 +1954,13 @@
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="18" t="e">
+        <f>VLOOKUP(H60,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1614,8 +1973,13 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="18" t="e">
+        <f>VLOOKUP(H61,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1628,8 +1992,13 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="18" t="e">
+        <f>VLOOKUP(H62,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1642,8 +2011,13 @@
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="18" t="e">
+        <f>VLOOKUP(H63,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1656,8 +2030,13 @@
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="18" t="e">
+        <f>VLOOKUP(H64,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1670,8 +2049,13 @@
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="18" t="e">
+        <f>VLOOKUP(H65,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="e">
         <f t="shared" si="0"/>
@@ -1684,8 +2068,13 @@
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="18" t="e">
+        <f>VLOOKUP(H66,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="e">
         <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_Mes,2,)</f>
@@ -1698,8 +2087,13 @@
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="18" t="e">
+        <f>VLOOKUP(H67,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1712,8 +2106,13 @@
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="18" t="e">
+        <f>VLOOKUP(H68,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1726,8 +2125,13 @@
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="18" t="e">
+        <f>VLOOKUP(H69,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1740,8 +2144,13 @@
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="18" t="e">
+        <f>VLOOKUP(H70,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1754,8 +2163,13 @@
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="18" t="e">
+        <f>VLOOKUP(H71,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1768,8 +2182,13 @@
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="18" t="e">
+        <f>VLOOKUP(H72,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1782,8 +2201,13 @@
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="18" t="e">
+        <f>VLOOKUP(H73,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1796,8 +2220,13 @@
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="18" t="e">
+        <f>VLOOKUP(H74,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1810,8 +2239,13 @@
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="18" t="e">
+        <f>VLOOKUP(H75,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1824,8 +2258,13 @@
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="18" t="e">
+        <f>VLOOKUP(H76,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1838,8 +2277,13 @@
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="18" t="e">
+        <f>VLOOKUP(H77,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1852,8 +2296,13 @@
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="18" t="e">
+        <f>VLOOKUP(H78,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1866,8 +2315,13 @@
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="18" t="e">
+        <f>VLOOKUP(H79,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1880,8 +2334,13 @@
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="18" t="e">
+        <f>VLOOKUP(H80,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1894,8 +2353,13 @@
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="18" t="e">
+        <f>VLOOKUP(H81,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1908,8 +2372,13 @@
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="18" t="e">
+        <f>VLOOKUP(H82,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1922,8 +2391,13 @@
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="18" t="e">
+        <f>VLOOKUP(H83,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1936,8 +2410,13 @@
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="18" t="e">
+        <f>VLOOKUP(H84,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1950,8 +2429,13 @@
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="16"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="18" t="e">
+        <f>VLOOKUP(H85,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1964,8 +2448,13 @@
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="16"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="18" t="e">
+        <f>VLOOKUP(H86,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1978,8 +2467,13 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="16"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="18" t="e">
+        <f>VLOOKUP(H87,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="e">
         <f t="shared" si="2"/>
@@ -1992,8 +2486,13 @@
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="16"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="18" t="e">
+        <f>VLOOKUP(H88,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2006,8 +2505,13 @@
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="18" t="e">
+        <f>VLOOKUP(H89,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2020,8 +2524,13 @@
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="16"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="18" t="e">
+        <f>VLOOKUP(H90,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2034,8 +2543,13 @@
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="18" t="e">
+        <f>VLOOKUP(H91,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2048,8 +2562,13 @@
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="16"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="18" t="e">
+        <f>VLOOKUP(H92,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2062,8 +2581,13 @@
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="16"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="18" t="e">
+        <f>VLOOKUP(H93,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2076,8 +2600,13 @@
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="16"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="18" t="e">
+        <f>VLOOKUP(H94,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2090,8 +2619,13 @@
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="18" t="e">
+        <f>VLOOKUP(H95,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2104,8 +2638,13 @@
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="16"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="18" t="e">
+        <f>VLOOKUP(H96,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2118,8 +2657,13 @@
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="16"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="18" t="e">
+        <f>VLOOKUP(H97,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2132,8 +2676,13 @@
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="16"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="18" t="e">
+        <f>VLOOKUP(H98,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2146,8 +2695,13 @@
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="16"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="18" t="e">
+        <f>VLOOKUP(H99,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2160,8 +2714,13 @@
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="16"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="18" t="e">
+        <f>VLOOKUP(H100,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2174,8 +2733,13 @@
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="16"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="18" t="e">
+        <f>VLOOKUP(H101,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2188,8 +2752,13 @@
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="16"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="18" t="e">
+        <f>VLOOKUP(H102,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2202,8 +2771,13 @@
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="16"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="18" t="e">
+        <f>VLOOKUP(H103,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2216,8 +2790,13 @@
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="16"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="18" t="e">
+        <f>VLOOKUP(H104,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="23"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2230,8 +2809,13 @@
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="16"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="18" t="e">
+        <f>VLOOKUP(H105,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H105" s="23"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2244,8 +2828,13 @@
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="16"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="18" t="e">
+        <f>VLOOKUP(H106,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="23"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2258,8 +2847,13 @@
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="16"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="18" t="e">
+        <f>VLOOKUP(H107,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H107" s="23"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2272,8 +2866,13 @@
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="16"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="18" t="e">
+        <f>VLOOKUP(H108,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H108" s="23"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2286,8 +2885,13 @@
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="16"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="18" t="e">
+        <f>VLOOKUP(H109,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2300,8 +2904,13 @@
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="16"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="18" t="e">
+        <f>VLOOKUP(H110,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H110" s="23"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2314,8 +2923,13 @@
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="16"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="18" t="e">
+        <f>VLOOKUP(H111,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2328,8 +2942,13 @@
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="16"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="18" t="e">
+        <f>VLOOKUP(H112,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2342,8 +2961,13 @@
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="16"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="18" t="e">
+        <f>VLOOKUP(H113,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2356,8 +2980,13 @@
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="16"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="18" t="e">
+        <f>VLOOKUP(H114,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2370,8 +2999,13 @@
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="16"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="18" t="e">
+        <f>VLOOKUP(H115,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" s="23"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2384,8 +3018,13 @@
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="16"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="18" t="e">
+        <f>VLOOKUP(H116,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2398,8 +3037,13 @@
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="16"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="18" t="e">
+        <f>VLOOKUP(H117,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2412,8 +3056,13 @@
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="16"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="18" t="e">
+        <f>VLOOKUP(H118,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2426,8 +3075,13 @@
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="16"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="18" t="e">
+        <f>VLOOKUP(H119,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2440,8 +3094,13 @@
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="16"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="18" t="e">
+        <f>VLOOKUP(H120,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2454,8 +3113,13 @@
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="16"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="18" t="e">
+        <f>VLOOKUP(H121,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2468,8 +3132,13 @@
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="16"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="18" t="e">
+        <f>VLOOKUP(H122,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2482,8 +3151,13 @@
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="16"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="18" t="e">
+        <f>VLOOKUP(H123,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2496,8 +3170,13 @@
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="16"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="18" t="e">
+        <f>VLOOKUP(H124,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H124" s="23"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2510,8 +3189,13 @@
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="16"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="18" t="e">
+        <f>VLOOKUP(H125,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2524,8 +3208,13 @@
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="16"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="18" t="e">
+        <f>VLOOKUP(H126,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2538,8 +3227,13 @@
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="16"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="18" t="e">
+        <f>VLOOKUP(H127,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2552,8 +3246,13 @@
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="16"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="18" t="e">
+        <f>VLOOKUP(H128,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2566,8 +3265,13 @@
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="16"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="18" t="e">
+        <f>VLOOKUP(H129,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9" t="e">
         <f t="shared" si="2"/>
@@ -2580,8 +3284,13 @@
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="16"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="18" t="e">
+        <f>VLOOKUP(H130,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="e">
         <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_Mes,2,)</f>
@@ -2594,8 +3303,13 @@
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="16"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="18" t="e">
+        <f>VLOOKUP(H131,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2608,8 +3322,13 @@
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="16"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="18" t="e">
+        <f>VLOOKUP(H132,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2622,8 +3341,13 @@
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="16"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="18" t="e">
+        <f>VLOOKUP(H133,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2636,8 +3360,13 @@
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="16"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="18" t="e">
+        <f>VLOOKUP(H134,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2650,8 +3379,13 @@
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="16"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="18" t="e">
+        <f>VLOOKUP(H135,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2664,8 +3398,13 @@
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="16"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="18" t="e">
+        <f>VLOOKUP(H136,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2678,8 +3417,13 @@
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="16"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="18" t="e">
+        <f>VLOOKUP(H137,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2692,8 +3436,13 @@
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="16"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="18" t="e">
+        <f>VLOOKUP(H138,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2706,8 +3455,13 @@
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="16"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="18" t="e">
+        <f>VLOOKUP(H139,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2720,8 +3474,13 @@
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="16"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="18" t="e">
+        <f>VLOOKUP(H140,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2734,8 +3493,13 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="16"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="18" t="e">
+        <f>VLOOKUP(H141,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2748,8 +3512,13 @@
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="16"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="18" t="e">
+        <f>VLOOKUP(H142,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H142" s="23"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2762,8 +3531,13 @@
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="16"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="18" t="e">
+        <f>VLOOKUP(H143,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H143" s="23"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2776,8 +3550,13 @@
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="16"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="18" t="e">
+        <f>VLOOKUP(H144,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H144" s="23"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2790,8 +3569,13 @@
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="16"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="18" t="e">
+        <f>VLOOKUP(H145,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H145" s="23"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2804,8 +3588,13 @@
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="16"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="18" t="e">
+        <f>VLOOKUP(H146,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H146" s="23"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2818,8 +3607,13 @@
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="16"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="18" t="e">
+        <f>VLOOKUP(H147,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H147" s="23"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2832,8 +3626,13 @@
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="16"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="18" t="e">
+        <f>VLOOKUP(H148,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H148" s="23"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2846,8 +3645,13 @@
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="16"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="18" t="e">
+        <f>VLOOKUP(H149,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H149" s="23"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2860,8 +3664,13 @@
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="16"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="18" t="e">
+        <f>VLOOKUP(H150,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H150" s="23"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2874,8 +3683,13 @@
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="16"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="18" t="e">
+        <f>VLOOKUP(H151,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H151" s="23"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2888,8 +3702,13 @@
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="16"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="18" t="e">
+        <f>VLOOKUP(H152,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H152" s="23"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2902,8 +3721,13 @@
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="16"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="18" t="e">
+        <f>VLOOKUP(H153,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H153" s="23"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2916,8 +3740,13 @@
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="16"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="18" t="e">
+        <f>VLOOKUP(H154,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2930,8 +3759,13 @@
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="16"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="18" t="e">
+        <f>VLOOKUP(H155,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H155" s="23"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2944,8 +3778,13 @@
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="16"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="18" t="e">
+        <f>VLOOKUP(H156,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H156" s="23"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2958,8 +3797,13 @@
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="16"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="18" t="e">
+        <f>VLOOKUP(H157,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H157" s="23"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2972,8 +3816,13 @@
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="16"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="18" t="e">
+        <f>VLOOKUP(H158,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H158" s="23"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="e">
         <f t="shared" si="4"/>
@@ -2986,8 +3835,13 @@
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="16"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="18" t="e">
+        <f>VLOOKUP(H159,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H159" s="23"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3000,8 +3854,13 @@
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="16"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="18" t="e">
+        <f>VLOOKUP(H160,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H160" s="23"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3014,8 +3873,13 @@
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="16"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="18" t="e">
+        <f>VLOOKUP(H161,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H161" s="23"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3028,8 +3892,13 @@
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="16"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="18" t="e">
+        <f>VLOOKUP(H162,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H162" s="23"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3042,8 +3911,13 @@
       </c>
       <c r="E163" s="9"/>
       <c r="F163" s="16"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="18" t="e">
+        <f>VLOOKUP(H163,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H163" s="23"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3056,8 +3930,13 @@
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="16"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="18" t="e">
+        <f>VLOOKUP(H164,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3070,8 +3949,13 @@
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="16"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="18" t="e">
+        <f>VLOOKUP(H165,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3084,8 +3968,13 @@
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="16"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="18" t="e">
+        <f>VLOOKUP(H166,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H166" s="23"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3098,8 +3987,13 @@
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="16"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="18" t="e">
+        <f>VLOOKUP(H167,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H167" s="23"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3112,8 +4006,13 @@
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="16"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="18" t="e">
+        <f>VLOOKUP(H168,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H168" s="23"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3126,8 +4025,13 @@
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="16"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="18" t="e">
+        <f>VLOOKUP(H169,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H169" s="23"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3140,8 +4044,13 @@
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="16"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="18" t="e">
+        <f>VLOOKUP(H170,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H170" s="23"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3154,8 +4063,13 @@
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="16"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="18" t="e">
+        <f>VLOOKUP(H171,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H171" s="23"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3168,8 +4082,13 @@
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="16"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="18" t="e">
+        <f>VLOOKUP(H172,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H172" s="23"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3182,8 +4101,13 @@
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="16"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="18" t="e">
+        <f>VLOOKUP(H173,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H173" s="23"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3196,8 +4120,13 @@
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="16"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="18" t="e">
+        <f>VLOOKUP(H174,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H174" s="23"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3210,8 +4139,13 @@
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="16"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="18" t="e">
+        <f>VLOOKUP(H175,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H175" s="23"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3224,8 +4158,13 @@
       </c>
       <c r="E176" s="9"/>
       <c r="F176" s="16"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="18" t="e">
+        <f>VLOOKUP(H176,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H176" s="23"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3238,8 +4177,13 @@
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="16"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="18" t="e">
+        <f>VLOOKUP(H177,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H177" s="23"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3252,8 +4196,13 @@
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="16"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="18" t="e">
+        <f>VLOOKUP(H178,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H178" s="23"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3266,8 +4215,13 @@
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="16"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="18" t="e">
+        <f>VLOOKUP(H179,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3280,8 +4234,13 @@
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="16"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="18" t="e">
+        <f>VLOOKUP(H180,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H180" s="23"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3294,8 +4253,13 @@
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="16"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="18" t="e">
+        <f>VLOOKUP(H181,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3308,8 +4272,13 @@
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="16"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="18" t="e">
+        <f>VLOOKUP(H182,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3322,8 +4291,13 @@
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="16"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="18" t="e">
+        <f>VLOOKUP(H183,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H183" s="23"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3336,8 +4310,13 @@
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="16"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="18" t="e">
+        <f>VLOOKUP(H184,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3350,8 +4329,13 @@
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="16"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="18" t="e">
+        <f>VLOOKUP(H185,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3364,8 +4348,13 @@
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="16"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="18" t="e">
+        <f>VLOOKUP(H186,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H186" s="23"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3378,8 +4367,13 @@
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="16"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="18" t="e">
+        <f>VLOOKUP(H187,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3392,8 +4386,13 @@
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="16"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="18" t="e">
+        <f>VLOOKUP(H188,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H188" s="23"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3406,8 +4405,13 @@
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="16"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="18" t="e">
+        <f>VLOOKUP(H189,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H189" s="23"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3420,8 +4424,13 @@
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="16"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="18" t="e">
+        <f>VLOOKUP(H190,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3434,8 +4443,13 @@
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="16"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="18" t="e">
+        <f>VLOOKUP(H191,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H191" s="23"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3448,8 +4462,13 @@
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="16"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="18" t="e">
+        <f>VLOOKUP(H192,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H192" s="23"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3462,8 +4481,13 @@
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="16"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="18" t="e">
+        <f>VLOOKUP(H193,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H193" s="23"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="e">
         <f t="shared" si="4"/>
@@ -3476,8 +4500,13 @@
       </c>
       <c r="E194" s="9"/>
       <c r="F194" s="16"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="18" t="e">
+        <f>VLOOKUP(H194,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="e">
         <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_Mes,2,)</f>
@@ -3490,8 +4519,13 @@
       </c>
       <c r="E195" s="9"/>
       <c r="F195" s="16"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="18" t="e">
+        <f>VLOOKUP(H195,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H195" s="23"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3504,8 +4538,13 @@
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="16"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="18" t="e">
+        <f>VLOOKUP(H196,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H196" s="23"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3518,8 +4557,13 @@
       </c>
       <c r="E197" s="9"/>
       <c r="F197" s="16"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="18" t="e">
+        <f>VLOOKUP(H197,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3532,8 +4576,13 @@
       </c>
       <c r="E198" s="9"/>
       <c r="F198" s="16"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="18" t="e">
+        <f>VLOOKUP(H198,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="23"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3546,8 +4595,13 @@
       </c>
       <c r="E199" s="9"/>
       <c r="F199" s="16"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="18" t="e">
+        <f>VLOOKUP(H199,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3560,8 +4614,13 @@
       </c>
       <c r="E200" s="9"/>
       <c r="F200" s="16"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="18" t="e">
+        <f>VLOOKUP(H200,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3574,8 +4633,13 @@
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="16"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="18" t="e">
+        <f>VLOOKUP(H201,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3588,8 +4652,13 @@
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="16"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="18" t="e">
+        <f>VLOOKUP(H202,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3602,8 +4671,13 @@
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="16"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="18" t="e">
+        <f>VLOOKUP(H203,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3616,8 +4690,13 @@
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="16"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="18" t="e">
+        <f>VLOOKUP(H204,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3630,8 +4709,13 @@
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="16"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="18" t="e">
+        <f>VLOOKUP(H205,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3644,8 +4728,13 @@
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="16"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="18" t="e">
+        <f>VLOOKUP(H206,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3658,8 +4747,13 @@
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="16"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="18" t="e">
+        <f>VLOOKUP(H207,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="23"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3672,8 +4766,13 @@
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="16"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="18" t="e">
+        <f>VLOOKUP(H208,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="23"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3686,8 +4785,13 @@
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="16"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="18" t="e">
+        <f>VLOOKUP(H209,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="23"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3700,8 +4804,13 @@
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="16"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="18" t="e">
+        <f>VLOOKUP(H210,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H210" s="23"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3714,8 +4823,13 @@
       </c>
       <c r="E211" s="9"/>
       <c r="F211" s="16"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="18" t="e">
+        <f>VLOOKUP(H211,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H211" s="23"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3728,8 +4842,13 @@
       </c>
       <c r="E212" s="9"/>
       <c r="F212" s="16"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="18" t="e">
+        <f>VLOOKUP(H212,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H212" s="23"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3742,8 +4861,13 @@
       </c>
       <c r="E213" s="9"/>
       <c r="F213" s="16"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="18" t="e">
+        <f>VLOOKUP(H213,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H213" s="23"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3756,8 +4880,13 @@
       </c>
       <c r="E214" s="9"/>
       <c r="F214" s="16"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="18" t="e">
+        <f>VLOOKUP(H214,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H214" s="23"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3770,8 +4899,13 @@
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="16"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="18" t="e">
+        <f>VLOOKUP(H215,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H215" s="23"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3784,8 +4918,13 @@
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="16"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="18" t="e">
+        <f>VLOOKUP(H216,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H216" s="23"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3798,8 +4937,13 @@
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="16"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="18" t="e">
+        <f>VLOOKUP(H217,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H217" s="23"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3812,8 +4956,13 @@
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="16"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="18" t="e">
+        <f>VLOOKUP(H218,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H218" s="23"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3826,8 +4975,13 @@
       </c>
       <c r="E219" s="9"/>
       <c r="F219" s="16"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="18" t="e">
+        <f>VLOOKUP(H219,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H219" s="23"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3840,8 +4994,13 @@
       </c>
       <c r="E220" s="9"/>
       <c r="F220" s="16"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="18" t="e">
+        <f>VLOOKUP(H220,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H220" s="23"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3854,8 +5013,13 @@
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="16"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="18" t="e">
+        <f>VLOOKUP(H221,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H221" s="23"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3868,8 +5032,13 @@
       </c>
       <c r="E222" s="9"/>
       <c r="F222" s="16"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="18" t="e">
+        <f>VLOOKUP(H222,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H222" s="23"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3882,8 +5051,13 @@
       </c>
       <c r="E223" s="9"/>
       <c r="F223" s="16"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="18" t="e">
+        <f>VLOOKUP(H223,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H223" s="23"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3896,8 +5070,13 @@
       </c>
       <c r="E224" s="9"/>
       <c r="F224" s="16"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="18" t="e">
+        <f>VLOOKUP(H224,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H224" s="23"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3910,8 +5089,13 @@
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="16"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="18" t="e">
+        <f>VLOOKUP(H225,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H225" s="23"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3924,8 +5108,13 @@
       </c>
       <c r="E226" s="9"/>
       <c r="F226" s="16"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="18" t="e">
+        <f>VLOOKUP(H226,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H226" s="23"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3938,8 +5127,13 @@
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="16"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="18" t="e">
+        <f>VLOOKUP(H227,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H227" s="23"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3952,8 +5146,13 @@
       </c>
       <c r="E228" s="9"/>
       <c r="F228" s="16"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="18" t="e">
+        <f>VLOOKUP(H228,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H228" s="23"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3966,8 +5165,13 @@
       </c>
       <c r="E229" s="9"/>
       <c r="F229" s="16"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="18" t="e">
+        <f>VLOOKUP(H229,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H229" s="23"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3980,8 +5184,13 @@
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="16"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="18" t="e">
+        <f>VLOOKUP(H230,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H230" s="23"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="e">
         <f t="shared" si="6"/>
@@ -3994,8 +5203,13 @@
       </c>
       <c r="E231" s="9"/>
       <c r="F231" s="16"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="18" t="e">
+        <f>VLOOKUP(H231,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H231" s="23"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4008,8 +5222,13 @@
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="16"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="18" t="e">
+        <f>VLOOKUP(H232,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H232" s="23"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4022,8 +5241,13 @@
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="16"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="18" t="e">
+        <f>VLOOKUP(H233,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H233" s="23"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4036,8 +5260,13 @@
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="16"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="18" t="e">
+        <f>VLOOKUP(H234,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H234" s="23"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4050,8 +5279,13 @@
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="16"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="18" t="e">
+        <f>VLOOKUP(H235,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H235" s="23"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4064,8 +5298,13 @@
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="16"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="18" t="e">
+        <f>VLOOKUP(H236,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H236" s="23"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4078,8 +5317,13 @@
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="16"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="18" t="e">
+        <f>VLOOKUP(H237,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H237" s="23"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4092,8 +5336,13 @@
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="16"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="18" t="e">
+        <f>VLOOKUP(H238,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H238" s="23"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4106,8 +5355,13 @@
       </c>
       <c r="E239" s="9"/>
       <c r="F239" s="16"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="18" t="e">
+        <f>VLOOKUP(H239,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H239" s="23"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4120,8 +5374,13 @@
       </c>
       <c r="E240" s="9"/>
       <c r="F240" s="16"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="18" t="e">
+        <f>VLOOKUP(H240,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H240" s="23"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4134,8 +5393,13 @@
       </c>
       <c r="E241" s="9"/>
       <c r="F241" s="16"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="18" t="e">
+        <f>VLOOKUP(H241,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H241" s="23"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4148,8 +5412,13 @@
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="16"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="18" t="e">
+        <f>VLOOKUP(H242,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H242" s="23"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4162,8 +5431,13 @@
       </c>
       <c r="E243" s="9"/>
       <c r="F243" s="16"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="18" t="e">
+        <f>VLOOKUP(H243,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H243" s="23"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4176,8 +5450,13 @@
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="16"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="18" t="e">
+        <f>VLOOKUP(H244,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H244" s="23"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4190,8 +5469,13 @@
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="16"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="18" t="e">
+        <f>VLOOKUP(H245,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H245" s="23"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4204,8 +5488,13 @@
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="16"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="18" t="e">
+        <f>VLOOKUP(H246,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H246" s="23"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4218,8 +5507,13 @@
       </c>
       <c r="E247" s="9"/>
       <c r="F247" s="16"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="18" t="e">
+        <f>VLOOKUP(H247,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H247" s="23"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4232,8 +5526,13 @@
       </c>
       <c r="E248" s="9"/>
       <c r="F248" s="16"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="18" t="e">
+        <f>VLOOKUP(H248,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H248" s="23"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4246,8 +5545,13 @@
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="16"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="18" t="e">
+        <f>VLOOKUP(H249,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H249" s="23"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4260,8 +5564,13 @@
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="16"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="18" t="e">
+        <f>VLOOKUP(H250,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H250" s="23"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4274,8 +5583,13 @@
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="16"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="18" t="e">
+        <f>VLOOKUP(H251,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H251" s="23"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4288,8 +5602,13 @@
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="16"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="18" t="e">
+        <f>VLOOKUP(H252,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H252" s="23"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4302,8 +5621,13 @@
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="16"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="18" t="e">
+        <f>VLOOKUP(H253,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H253" s="23"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4316,8 +5640,13 @@
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="16"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="18" t="e">
+        <f>VLOOKUP(H254,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H254" s="23"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4330,8 +5659,13 @@
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="16"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="18" t="e">
+        <f>VLOOKUP(H255,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H255" s="23"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4344,8 +5678,13 @@
       </c>
       <c r="E256" s="9"/>
       <c r="F256" s="16"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="18" t="e">
+        <f>VLOOKUP(H256,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H256" s="23"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4358,8 +5697,13 @@
       </c>
       <c r="E257" s="9"/>
       <c r="F257" s="16"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="18" t="e">
+        <f>VLOOKUP(H257,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H257" s="23"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="e">
         <f t="shared" si="6"/>
@@ -4372,8 +5716,13 @@
       </c>
       <c r="E258" s="9"/>
       <c r="F258" s="16"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="18" t="e">
+        <f>VLOOKUP(H258,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H258" s="23"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="e">
         <f t="shared" ref="B259:B311" si="8">VLOOKUP(C259,Tabla_Mes,2,)</f>
@@ -4386,8 +5735,13 @@
       </c>
       <c r="E259" s="9"/>
       <c r="F259" s="16"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="18" t="e">
+        <f>VLOOKUP(H259,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H259" s="23"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4400,8 +5754,13 @@
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="16"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="18" t="e">
+        <f>VLOOKUP(H260,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H260" s="23"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4414,8 +5773,13 @@
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="16"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="18" t="e">
+        <f>VLOOKUP(H261,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H261" s="23"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4428,8 +5792,13 @@
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="16"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="18" t="e">
+        <f>VLOOKUP(H262,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H262" s="23"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4442,8 +5811,13 @@
       </c>
       <c r="E263" s="9"/>
       <c r="F263" s="16"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="18" t="e">
+        <f>VLOOKUP(H263,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H263" s="23"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4456,8 +5830,13 @@
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="16"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="18" t="e">
+        <f>VLOOKUP(H264,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H264" s="23"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4470,8 +5849,13 @@
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="16"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="18" t="e">
+        <f>VLOOKUP(H265,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H265" s="23"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4484,8 +5868,13 @@
       </c>
       <c r="E266" s="9"/>
       <c r="F266" s="16"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="18" t="e">
+        <f>VLOOKUP(H266,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H266" s="23"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4498,8 +5887,13 @@
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="16"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="18" t="e">
+        <f>VLOOKUP(H267,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H267" s="23"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4512,8 +5906,13 @@
       </c>
       <c r="E268" s="9"/>
       <c r="F268" s="16"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="18" t="e">
+        <f>VLOOKUP(H268,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H268" s="23"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4526,8 +5925,13 @@
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="16"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="18" t="e">
+        <f>VLOOKUP(H269,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H269" s="23"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4540,8 +5944,13 @@
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="16"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="18" t="e">
+        <f>VLOOKUP(H270,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H270" s="23"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4554,8 +5963,13 @@
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="16"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="18" t="e">
+        <f>VLOOKUP(H271,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H271" s="23"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4568,8 +5982,13 @@
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="16"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="18" t="e">
+        <f>VLOOKUP(H272,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H272" s="23"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4582,8 +6001,13 @@
       </c>
       <c r="E273" s="9"/>
       <c r="F273" s="16"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="18" t="e">
+        <f>VLOOKUP(H273,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H273" s="23"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4596,8 +6020,13 @@
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="16"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="18" t="e">
+        <f>VLOOKUP(H274,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H274" s="23"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4610,8 +6039,13 @@
       </c>
       <c r="E275" s="9"/>
       <c r="F275" s="16"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="18" t="e">
+        <f>VLOOKUP(H275,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H275" s="23"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4624,8 +6058,13 @@
       </c>
       <c r="E276" s="9"/>
       <c r="F276" s="16"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="18" t="e">
+        <f>VLOOKUP(H276,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H276" s="23"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4638,8 +6077,13 @@
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="16"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="18" t="e">
+        <f>VLOOKUP(H277,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H277" s="23"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4652,8 +6096,13 @@
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="16"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="18" t="e">
+        <f>VLOOKUP(H278,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H278" s="23"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4666,8 +6115,13 @@
       </c>
       <c r="E279" s="9"/>
       <c r="F279" s="16"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="18" t="e">
+        <f>VLOOKUP(H279,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H279" s="23"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4680,8 +6134,13 @@
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="16"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="18" t="e">
+        <f>VLOOKUP(H280,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H280" s="23"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4694,8 +6153,13 @@
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="16"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="18" t="e">
+        <f>VLOOKUP(H281,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H281" s="23"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4708,8 +6172,13 @@
       </c>
       <c r="E282" s="9"/>
       <c r="F282" s="16"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="18" t="e">
+        <f>VLOOKUP(H282,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H282" s="23"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4722,8 +6191,13 @@
       </c>
       <c r="E283" s="9"/>
       <c r="F283" s="16"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="18" t="e">
+        <f>VLOOKUP(H283,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H283" s="23"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4736,8 +6210,13 @@
       </c>
       <c r="E284" s="9"/>
       <c r="F284" s="16"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="18" t="e">
+        <f>VLOOKUP(H284,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H284" s="23"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4750,8 +6229,13 @@
       </c>
       <c r="E285" s="9"/>
       <c r="F285" s="16"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="18" t="e">
+        <f>VLOOKUP(H285,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H285" s="23"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4764,8 +6248,13 @@
       </c>
       <c r="E286" s="9"/>
       <c r="F286" s="16"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="18" t="e">
+        <f>VLOOKUP(H286,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H286" s="23"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4778,8 +6267,13 @@
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="16"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="18" t="e">
+        <f>VLOOKUP(H287,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H287" s="23"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4792,8 +6286,13 @@
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="16"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="18" t="e">
+        <f>VLOOKUP(H288,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H288" s="23"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4806,8 +6305,13 @@
       </c>
       <c r="E289" s="9"/>
       <c r="F289" s="16"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="18" t="e">
+        <f>VLOOKUP(H289,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H289" s="23"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4820,8 +6324,13 @@
       </c>
       <c r="E290" s="9"/>
       <c r="F290" s="16"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="18" t="e">
+        <f>VLOOKUP(H290,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H290" s="23"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4834,8 +6343,13 @@
       </c>
       <c r="E291" s="9"/>
       <c r="F291" s="16"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="18" t="e">
+        <f>VLOOKUP(H291,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H291" s="23"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4848,8 +6362,13 @@
       </c>
       <c r="E292" s="9"/>
       <c r="F292" s="16"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="18" t="e">
+        <f>VLOOKUP(H292,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H292" s="23"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4862,8 +6381,13 @@
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="16"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="18" t="e">
+        <f>VLOOKUP(H293,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H293" s="23"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4876,8 +6400,13 @@
       </c>
       <c r="E294" s="9"/>
       <c r="F294" s="16"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="18" t="e">
+        <f>VLOOKUP(H294,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H294" s="23"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4890,8 +6419,13 @@
       </c>
       <c r="E295" s="9"/>
       <c r="F295" s="16"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="18" t="e">
+        <f>VLOOKUP(H295,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H295" s="23"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4904,8 +6438,13 @@
       </c>
       <c r="E296" s="9"/>
       <c r="F296" s="16"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="18" t="e">
+        <f>VLOOKUP(H296,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H296" s="23"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4918,8 +6457,13 @@
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="16"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="18" t="e">
+        <f>VLOOKUP(H297,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H297" s="23"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4932,8 +6476,13 @@
       </c>
       <c r="E298" s="9"/>
       <c r="F298" s="16"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="18" t="e">
+        <f>VLOOKUP(H298,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H298" s="23"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4946,8 +6495,13 @@
       </c>
       <c r="E299" s="9"/>
       <c r="F299" s="16"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="18" t="e">
+        <f>VLOOKUP(H299,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H299" s="23"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4960,8 +6514,13 @@
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="16"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="18" t="e">
+        <f>VLOOKUP(H300,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H300" s="23"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4974,8 +6533,13 @@
       </c>
       <c r="E301" s="9"/>
       <c r="F301" s="16"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="18" t="e">
+        <f>VLOOKUP(H301,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H301" s="23"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="e">
         <f t="shared" si="8"/>
@@ -4988,8 +6552,13 @@
       </c>
       <c r="E302" s="9"/>
       <c r="F302" s="16"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="18" t="e">
+        <f>VLOOKUP(H302,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H302" s="23"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5002,8 +6571,13 @@
       </c>
       <c r="E303" s="9"/>
       <c r="F303" s="16"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="18" t="e">
+        <f>VLOOKUP(H303,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H303" s="23"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5016,8 +6590,13 @@
       </c>
       <c r="E304" s="9"/>
       <c r="F304" s="17"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="18" t="e">
+        <f>VLOOKUP(H304,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H304" s="23"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5030,8 +6609,13 @@
       </c>
       <c r="E305" s="9"/>
       <c r="F305" s="17"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="18" t="e">
+        <f>VLOOKUP(H305,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H305" s="23"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5044,8 +6628,13 @@
       </c>
       <c r="E306" s="9"/>
       <c r="F306" s="17"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="18" t="e">
+        <f>VLOOKUP(H306,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H306" s="23"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5058,8 +6647,13 @@
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="17"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="18" t="e">
+        <f>VLOOKUP(H307,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H307" s="23"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5072,8 +6666,13 @@
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="17"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="18" t="e">
+        <f>VLOOKUP(H308,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H308" s="23"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5086,8 +6685,13 @@
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="17"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="18" t="e">
+        <f>VLOOKUP(H309,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H309" s="23"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5100,8 +6704,13 @@
       </c>
       <c r="E310" s="9"/>
       <c r="F310" s="17"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="18" t="e">
+        <f>VLOOKUP(H310,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H310" s="23"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="e">
         <f t="shared" si="8"/>
@@ -5114,11 +6723,16 @@
       </c>
       <c r="E311" s="9"/>
       <c r="F311" s="10"/>
+      <c r="G311" s="18" t="e">
+        <f>VLOOKUP(H311,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H311" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F7YSY/28UOWs7AaOCr7lpBicf5w5S5JVcaEIOAlsKI13v7B9HwthOHsYV+vAyOmPapb7gKvVTXkaofwtDrYJGw==" saltValue="txKUlG37K1XAeVglozjopA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3Xu7i+WxVD0OlTuwraIn/NQiwh/e263tbHSJxRjB7/82i15fHraD+FPySDN+L4pakxBsloO3k7INbYS4CMzhew==" saltValue="lZt6XrJVKiXodfFMf0G89g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{6D2F6D80-F246-4203-A0F8-56A4031B2F0B}">
       <formula1>Tabla_Anno</formula1>
     </dataValidation>
@@ -5135,6 +6749,9 @@
       <formula1>0</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H311" xr:uid="{1DE05F67-735A-4273-BEA1-498CCCE04655}">
+      <formula1>Lista_ER</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5144,18 +6761,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BC4181-3F8B-4953-9A42-99B90C89FCA2}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5166,7 +6784,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -5184,8 +6802,14 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5205,8 +6829,14 @@
         <v>1</v>
       </c>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2010</v>
       </c>
@@ -5227,7 +6857,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2011</v>
       </c>
@@ -5248,7 +6878,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2012</v>
       </c>
@@ -5265,7 +6895,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2013</v>
       </c>
@@ -5282,7 +6912,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2014</v>
       </c>
@@ -5299,7 +6929,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -5316,7 +6946,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2016</v>
       </c>
@@ -5333,7 +6963,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2017</v>
       </c>
@@ -5350,7 +6980,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2018</v>
       </c>
@@ -5367,7 +6997,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2019</v>
       </c>
@@ -5384,7 +7014,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
@@ -5401,7 +7031,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2021</v>
       </c>
@@ -5414,7 +7044,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2022</v>
       </c>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E5F4E1-794A-4AFD-8927-37619563DC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA202F51-1EDE-40C9-94A3-7CAB49300BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Año</t>
   </si>
@@ -340,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -374,9 +374,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,9 +394,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -409,7 +403,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,7 +723,7 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,30 +757,30 @@
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -806,14 +802,14 @@
       <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>750</v>
       </c>
-      <c r="G3" s="18">
-        <f>VLOOKUP(H3,Tabla_ER,2,)</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="2">VLOOKUP(H3,Tabla_ER,2,)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -835,14 +831,14 @@
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>435</v>
       </c>
-      <c r="G4" s="18">
-        <f>VLOOKUP(H4,Tabla_ER,2,)</f>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -864,14 +860,14 @@
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>684</v>
       </c>
-      <c r="G5" s="18">
-        <f>VLOOKUP(H5,Tabla_ER,2,)</f>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -893,14 +889,14 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>286</v>
       </c>
-      <c r="G6" s="18">
-        <f>VLOOKUP(H6,Tabla_ER,2,)</f>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -922,14 +918,14 @@
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2560</v>
       </c>
-      <c r="G7" s="18">
-        <f>VLOOKUP(H7,Tabla_ER,2,)</f>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -951,14 +947,14 @@
       <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>3024</v>
       </c>
-      <c r="G8" s="18">
-        <f>VLOOKUP(H8,Tabla_ER,2,)</f>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -980,73 +976,103 @@
       <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>2560</v>
       </c>
-      <c r="G9" s="18">
-        <f>VLOOKUP(H9,Tabla_ER,2,)</f>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="e">
+      <c r="A10" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="e">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18" t="e">
-        <f>VLOOKUP(H10,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15">
+        <v>4544</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="e">
+      <c r="A11" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="e">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18" t="e">
-        <f>VLOOKUP(H11,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5444</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="e">
+      <c r="A12" s="9">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="e">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18" t="e">
-        <f>VLOOKUP(H12,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="15">
+        <v>56565</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -1060,12 +1086,12 @@
         <v>#N/A</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18" t="e">
-        <f>VLOOKUP(H13,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="23"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -1079,12 +1105,12 @@
         <v>#N/A</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18" t="e">
-        <f>VLOOKUP(H14,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="23"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1098,12 +1124,12 @@
         <v>#N/A</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18" t="e">
-        <f>VLOOKUP(H15,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="23"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1117,12 +1143,12 @@
         <v>#N/A</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18" t="e">
-        <f>VLOOKUP(H16,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="23"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1136,12 +1162,12 @@
         <v>#N/A</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18" t="e">
-        <f>VLOOKUP(H17,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="23"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1155,12 +1181,12 @@
         <v>#N/A</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18" t="e">
-        <f>VLOOKUP(H18,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="23"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1174,12 +1200,12 @@
         <v>#N/A</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18" t="e">
-        <f>VLOOKUP(H19,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1193,12 +1219,12 @@
         <v>#N/A</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18" t="e">
-        <f>VLOOKUP(H20,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1212,12 +1238,12 @@
         <v>#N/A</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18" t="e">
-        <f>VLOOKUP(H21,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1231,12 +1257,12 @@
         <v>#N/A</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18" t="e">
-        <f>VLOOKUP(H22,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="23"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1250,12 +1276,12 @@
         <v>#N/A</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18" t="e">
-        <f>VLOOKUP(H23,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="23"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1269,12 +1295,12 @@
         <v>#N/A</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18" t="e">
-        <f>VLOOKUP(H24,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="23"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1288,12 +1314,12 @@
         <v>#N/A</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18" t="e">
-        <f>VLOOKUP(H25,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="23"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1307,12 +1333,12 @@
         <v>#N/A</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18" t="e">
-        <f>VLOOKUP(H26,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H26" s="23"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1326,12 +1352,12 @@
         <v>#N/A</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18" t="e">
-        <f>VLOOKUP(H27,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" s="23"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1345,12 +1371,12 @@
         <v>#N/A</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18" t="e">
-        <f>VLOOKUP(H28,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1364,12 +1390,12 @@
         <v>#N/A</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18" t="e">
-        <f>VLOOKUP(H29,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" s="23"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
@@ -1383,12 +1409,12 @@
         <v>#N/A</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18" t="e">
-        <f>VLOOKUP(H30,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="23"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -1402,12 +1428,12 @@
         <v>#N/A</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18" t="e">
-        <f>VLOOKUP(H31,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H31" s="23"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1421,12 +1447,12 @@
         <v>#N/A</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="18" t="e">
-        <f>VLOOKUP(H32,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H32" s="23"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1440,12 +1466,12 @@
         <v>#N/A</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18" t="e">
-        <f>VLOOKUP(H33,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" s="23"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -1459,12 +1485,12 @@
         <v>#N/A</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18" t="e">
-        <f>VLOOKUP(H34,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="23"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -1478,12 +1504,12 @@
         <v>#N/A</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18" t="e">
-        <f>VLOOKUP(H35,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H35" s="23"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -1497,12 +1523,12 @@
         <v>#N/A</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18" t="e">
-        <f>VLOOKUP(H36,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H36" s="23"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -1516,12 +1542,12 @@
         <v>#N/A</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18" t="e">
-        <f>VLOOKUP(H37,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H37" s="23"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1535,12 +1561,12 @@
         <v>#N/A</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18" t="e">
-        <f>VLOOKUP(H38,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="23"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
@@ -1554,12 +1580,12 @@
         <v>#N/A</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18" t="e">
-        <f>VLOOKUP(H39,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H39" s="23"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1573,12 +1599,12 @@
         <v>#N/A</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18" t="e">
-        <f>VLOOKUP(H40,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H40" s="23"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
@@ -1592,12 +1618,12 @@
         <v>#N/A</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18" t="e">
-        <f>VLOOKUP(H41,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H41" s="23"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
@@ -1611,12 +1637,12 @@
         <v>#N/A</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18" t="e">
-        <f>VLOOKUP(H42,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H42" s="23"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
@@ -1630,12 +1656,12 @@
         <v>#N/A</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18" t="e">
-        <f>VLOOKUP(H43,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H43" s="23"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
@@ -1649,12 +1675,12 @@
         <v>#N/A</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18" t="e">
-        <f>VLOOKUP(H44,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H44" s="23"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1668,12 +1694,12 @@
         <v>#N/A</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18" t="e">
-        <f>VLOOKUP(H45,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H45" s="23"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1687,12 +1713,12 @@
         <v>#N/A</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18" t="e">
-        <f>VLOOKUP(H46,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H46" s="23"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1706,12 +1732,12 @@
         <v>#N/A</v>
       </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18" t="e">
-        <f>VLOOKUP(H47,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H47" s="23"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1725,12 +1751,12 @@
         <v>#N/A</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="18" t="e">
-        <f>VLOOKUP(H48,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H48" s="23"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1744,12 +1770,12 @@
         <v>#N/A</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="18" t="e">
-        <f>VLOOKUP(H49,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H49" s="23"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
@@ -1763,12 +1789,12 @@
         <v>#N/A</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18" t="e">
-        <f>VLOOKUP(H50,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H50" s="23"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
@@ -1782,12 +1808,12 @@
         <v>#N/A</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18" t="e">
-        <f>VLOOKUP(H51,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H51" s="23"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1801,12 +1827,12 @@
         <v>#N/A</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18" t="e">
-        <f>VLOOKUP(H52,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H52" s="23"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1820,12 +1846,12 @@
         <v>#N/A</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18" t="e">
-        <f>VLOOKUP(H53,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" s="23"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -1839,12 +1865,12 @@
         <v>#N/A</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18" t="e">
-        <f>VLOOKUP(H54,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H54" s="23"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -1858,12 +1884,12 @@
         <v>#N/A</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18" t="e">
-        <f>VLOOKUP(H55,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H55" s="23"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -1877,12 +1903,12 @@
         <v>#N/A</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18" t="e">
-        <f>VLOOKUP(H56,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H56" s="23"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
@@ -1896,12 +1922,12 @@
         <v>#N/A</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18" t="e">
-        <f>VLOOKUP(H57,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H57" s="23"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
@@ -1915,12 +1941,12 @@
         <v>#N/A</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="18" t="e">
-        <f>VLOOKUP(H58,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H58" s="23"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
@@ -1934,12 +1960,12 @@
         <v>#N/A</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="18" t="e">
-        <f>VLOOKUP(H59,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" s="23"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
@@ -1953,12 +1979,12 @@
         <v>#N/A</v>
       </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="18" t="e">
-        <f>VLOOKUP(H60,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H60" s="23"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
@@ -1972,12 +1998,12 @@
         <v>#N/A</v>
       </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="18" t="e">
-        <f>VLOOKUP(H61,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H61" s="23"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
@@ -1991,12 +2017,12 @@
         <v>#N/A</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="18" t="e">
-        <f>VLOOKUP(H62,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H62" s="23"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
@@ -2010,12 +2036,12 @@
         <v>#N/A</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="18" t="e">
-        <f>VLOOKUP(H63,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H63" s="23"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
@@ -2029,12 +2055,12 @@
         <v>#N/A</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="18" t="e">
-        <f>VLOOKUP(H64,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H64" s="23"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
@@ -2048,12 +2074,12 @@
         <v>#N/A</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="18" t="e">
-        <f>VLOOKUP(H65,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H65" s="23"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
@@ -2067,4670 +2093,4670 @@
         <v>#N/A</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="18" t="e">
-        <f>VLOOKUP(H66,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H66" s="23"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="e">
-        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_Mes,2,)</f>
+        <f t="shared" ref="B67:B130" si="3">VLOOKUP(C67,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="e">
-        <f t="shared" ref="D67:D130" si="3">VLOOKUP(E67,Tabla_Region,2,)</f>
+        <f t="shared" ref="D67:D130" si="4">VLOOKUP(E67,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E67" s="9"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="18" t="e">
-        <f>VLOOKUP(H67,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H67" s="23"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="1" t="e">
+        <f t="shared" ref="G67:G130" si="5">VLOOKUP(H67,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="18" t="e">
-        <f>VLOOKUP(H68,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" s="23"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E69" s="9"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="18" t="e">
-        <f>VLOOKUP(H69,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H69" s="23"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="18" t="e">
-        <f>VLOOKUP(H70,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H70" s="23"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="18" t="e">
-        <f>VLOOKUP(H71,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H71" s="23"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="18" t="e">
-        <f>VLOOKUP(H72,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H72" s="23"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="18" t="e">
-        <f>VLOOKUP(H73,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H73" s="23"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="18" t="e">
-        <f>VLOOKUP(H74,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H74" s="23"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="18" t="e">
-        <f>VLOOKUP(H75,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H75" s="23"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="18" t="e">
-        <f>VLOOKUP(H76,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H76" s="23"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="18" t="e">
-        <f>VLOOKUP(H77,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H77" s="23"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="18" t="e">
-        <f>VLOOKUP(H78,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" s="23"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="18" t="e">
-        <f>VLOOKUP(H79,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" s="23"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="18" t="e">
-        <f>VLOOKUP(H80,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H80" s="23"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="18" t="e">
-        <f>VLOOKUP(H81,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H81" s="23"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="18" t="e">
-        <f>VLOOKUP(H82,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H82" s="23"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="18" t="e">
-        <f>VLOOKUP(H83,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H83" s="23"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="18" t="e">
-        <f>VLOOKUP(H84,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="23"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H84" s="21"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="18" t="e">
-        <f>VLOOKUP(H85,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="23"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="18" t="e">
-        <f>VLOOKUP(H86,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" s="23"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="18" t="e">
-        <f>VLOOKUP(H87,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" s="23"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="21"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="18" t="e">
-        <f>VLOOKUP(H88,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="23"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="21"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="18" t="e">
-        <f>VLOOKUP(H89,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" s="23"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="18" t="e">
-        <f>VLOOKUP(H90,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" s="23"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="18" t="e">
-        <f>VLOOKUP(H91,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" s="23"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" s="21"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="18" t="e">
-        <f>VLOOKUP(H92,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" s="23"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" s="21"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="18" t="e">
-        <f>VLOOKUP(H93,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" s="23"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E94" s="9"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="18" t="e">
-        <f>VLOOKUP(H94,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" s="23"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" s="21"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="18" t="e">
-        <f>VLOOKUP(H95,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" s="23"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" s="21"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="18" t="e">
-        <f>VLOOKUP(H96,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H96" s="23"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" s="21"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="18" t="e">
-        <f>VLOOKUP(H97,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" s="23"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="18" t="e">
-        <f>VLOOKUP(H98,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H98" s="23"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="18" t="e">
-        <f>VLOOKUP(H99,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H99" s="23"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="18" t="e">
-        <f>VLOOKUP(H100,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H100" s="23"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="18" t="e">
-        <f>VLOOKUP(H101,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H101" s="23"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" s="21"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="18" t="e">
-        <f>VLOOKUP(H102,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H102" s="23"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="18" t="e">
-        <f>VLOOKUP(H103,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H103" s="23"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H103" s="21"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="18" t="e">
-        <f>VLOOKUP(H104,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" s="23"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H104" s="21"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="18" t="e">
-        <f>VLOOKUP(H105,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" s="23"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H105" s="21"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="18" t="e">
-        <f>VLOOKUP(H106,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" s="23"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="18" t="e">
-        <f>VLOOKUP(H107,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" s="23"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H107" s="21"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E108" s="9"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="18" t="e">
-        <f>VLOOKUP(H108,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" s="23"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H108" s="21"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="18" t="e">
-        <f>VLOOKUP(H109,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" s="23"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H109" s="21"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="18" t="e">
-        <f>VLOOKUP(H110,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" s="23"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H110" s="21"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="18" t="e">
-        <f>VLOOKUP(H111,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" s="23"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H111" s="21"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="18" t="e">
-        <f>VLOOKUP(H112,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" s="23"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="18" t="e">
-        <f>VLOOKUP(H113,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H113" s="23"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="18" t="e">
-        <f>VLOOKUP(H114,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" s="23"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H114" s="21"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="18" t="e">
-        <f>VLOOKUP(H115,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H115" s="23"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H115" s="21"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="18" t="e">
-        <f>VLOOKUP(H116,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H116" s="23"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H116" s="21"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="18" t="e">
-        <f>VLOOKUP(H117,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H117" s="23"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H117" s="21"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E118" s="9"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="18" t="e">
-        <f>VLOOKUP(H118,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H118" s="23"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H118" s="21"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="18" t="e">
-        <f>VLOOKUP(H119,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H119" s="23"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H119" s="21"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E120" s="9"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="18" t="e">
-        <f>VLOOKUP(H120,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H120" s="23"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H120" s="21"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="18" t="e">
-        <f>VLOOKUP(H121,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H121" s="23"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H121" s="21"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="18" t="e">
-        <f>VLOOKUP(H122,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H122" s="23"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H122" s="21"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="18" t="e">
-        <f>VLOOKUP(H123,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H123" s="23"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H123" s="21"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="18" t="e">
-        <f>VLOOKUP(H124,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H124" s="23"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H124" s="21"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="18" t="e">
-        <f>VLOOKUP(H125,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H125" s="23"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H125" s="21"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E126" s="9"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="18" t="e">
-        <f>VLOOKUP(H126,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H126" s="23"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E127" s="9"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="18" t="e">
-        <f>VLOOKUP(H127,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H127" s="23"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E128" s="9"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="18" t="e">
-        <f>VLOOKUP(H128,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H128" s="23"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H128" s="21"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E129" s="9"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="18" t="e">
-        <f>VLOOKUP(H129,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H129" s="23"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H129" s="21"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E130" s="9"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="18" t="e">
-        <f>VLOOKUP(H130,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H130" s="23"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H130" s="21"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="e">
-        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_Mes,2,)</f>
+        <f t="shared" ref="B131:B194" si="6">VLOOKUP(C131,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="e">
-        <f t="shared" ref="D131:D194" si="5">VLOOKUP(E131,Tabla_Region,2,)</f>
+        <f t="shared" ref="D131:D194" si="7">VLOOKUP(E131,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E131" s="9"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="18" t="e">
-        <f>VLOOKUP(H131,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H131" s="23"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="1" t="e">
+        <f t="shared" ref="G131:G194" si="8">VLOOKUP(H131,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="18" t="e">
-        <f>VLOOKUP(H132,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H132" s="23"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H132" s="21"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="9"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="18" t="e">
-        <f>VLOOKUP(H133,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H133" s="23"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H133" s="21"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="18" t="e">
-        <f>VLOOKUP(H134,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H134" s="23"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H134" s="21"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="9"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="18" t="e">
-        <f>VLOOKUP(H135,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H135" s="23"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H135" s="21"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="18" t="e">
-        <f>VLOOKUP(H136,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H136" s="23"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H136" s="21"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="18" t="e">
-        <f>VLOOKUP(H137,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H137" s="23"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="9"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="18" t="e">
-        <f>VLOOKUP(H138,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H138" s="23"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H138" s="21"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="18" t="e">
-        <f>VLOOKUP(H139,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H139" s="23"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H139" s="21"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="18" t="e">
-        <f>VLOOKUP(H140,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H140" s="23"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H140" s="21"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="18" t="e">
-        <f>VLOOKUP(H141,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H141" s="23"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H141" s="21"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="9"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="18" t="e">
-        <f>VLOOKUP(H142,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H142" s="23"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H142" s="21"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="18" t="e">
-        <f>VLOOKUP(H143,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H143" s="23"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H143" s="21"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="18" t="e">
-        <f>VLOOKUP(H144,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H144" s="23"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H144" s="21"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="18" t="e">
-        <f>VLOOKUP(H145,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H145" s="23"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H145" s="21"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="18" t="e">
-        <f>VLOOKUP(H146,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H146" s="23"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H146" s="21"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="18" t="e">
-        <f>VLOOKUP(H147,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H147" s="23"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H147" s="21"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="18" t="e">
-        <f>VLOOKUP(H148,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H148" s="23"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H148" s="21"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="18" t="e">
-        <f>VLOOKUP(H149,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H149" s="23"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H149" s="21"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="18" t="e">
-        <f>VLOOKUP(H150,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H150" s="23"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H150" s="21"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="18" t="e">
-        <f>VLOOKUP(H151,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H151" s="23"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H151" s="21"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="18" t="e">
-        <f>VLOOKUP(H152,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H152" s="23"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H152" s="21"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="9"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="18" t="e">
-        <f>VLOOKUP(H153,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H153" s="23"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H153" s="21"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="18" t="e">
-        <f>VLOOKUP(H154,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H154" s="23"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H154" s="21"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="18" t="e">
-        <f>VLOOKUP(H155,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H155" s="23"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H155" s="21"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="18" t="e">
-        <f>VLOOKUP(H156,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H156" s="23"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H156" s="21"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="18" t="e">
-        <f>VLOOKUP(H157,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H157" s="23"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H157" s="21"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="18" t="e">
-        <f>VLOOKUP(H158,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H158" s="23"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H158" s="21"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="18" t="e">
-        <f>VLOOKUP(H159,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H159" s="23"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="18" t="e">
-        <f>VLOOKUP(H160,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H160" s="23"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H160" s="21"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="18" t="e">
-        <f>VLOOKUP(H161,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H161" s="23"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="18" t="e">
-        <f>VLOOKUP(H162,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H162" s="23"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H162" s="21"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="18" t="e">
-        <f>VLOOKUP(H163,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H163" s="23"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="18" t="e">
-        <f>VLOOKUP(H164,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H164" s="23"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H164" s="21"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="18" t="e">
-        <f>VLOOKUP(H165,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H165" s="23"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H165" s="21"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="18" t="e">
-        <f>VLOOKUP(H166,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H166" s="23"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H166" s="21"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="18" t="e">
-        <f>VLOOKUP(H167,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H167" s="23"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="18" t="e">
-        <f>VLOOKUP(H168,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H168" s="23"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H168" s="21"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="9"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="18" t="e">
-        <f>VLOOKUP(H169,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H169" s="23"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H169" s="21"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="18" t="e">
-        <f>VLOOKUP(H170,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H170" s="23"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H170" s="21"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="9"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="18" t="e">
-        <f>VLOOKUP(H171,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H171" s="23"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H171" s="21"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="18" t="e">
-        <f>VLOOKUP(H172,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H172" s="23"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H172" s="21"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="9"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="18" t="e">
-        <f>VLOOKUP(H173,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H173" s="23"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H173" s="21"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="9"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="18" t="e">
-        <f>VLOOKUP(H174,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H174" s="23"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H174" s="21"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="9"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="18" t="e">
-        <f>VLOOKUP(H175,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H175" s="23"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H175" s="21"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E176" s="9"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="18" t="e">
-        <f>VLOOKUP(H176,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H176" s="23"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H176" s="21"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E177" s="9"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="18" t="e">
-        <f>VLOOKUP(H177,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H177" s="23"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H177" s="21"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="9"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="18" t="e">
-        <f>VLOOKUP(H178,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H178" s="23"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H178" s="21"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E179" s="9"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="18" t="e">
-        <f>VLOOKUP(H179,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H179" s="23"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H179" s="21"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E180" s="9"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="18" t="e">
-        <f>VLOOKUP(H180,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H180" s="23"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H180" s="21"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E181" s="9"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="18" t="e">
-        <f>VLOOKUP(H181,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H181" s="23"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H181" s="21"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E182" s="9"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="18" t="e">
-        <f>VLOOKUP(H182,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H182" s="23"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H182" s="21"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E183" s="9"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="18" t="e">
-        <f>VLOOKUP(H183,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H183" s="23"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H183" s="21"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E184" s="9"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="18" t="e">
-        <f>VLOOKUP(H184,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H184" s="23"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H184" s="21"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E185" s="9"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="18" t="e">
-        <f>VLOOKUP(H185,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H185" s="23"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H185" s="21"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E186" s="9"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="18" t="e">
-        <f>VLOOKUP(H186,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H186" s="23"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H186" s="21"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
       <c r="B187" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="9"/>
       <c r="D187" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E187" s="9"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="18" t="e">
-        <f>VLOOKUP(H187,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H187" s="23"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H187" s="21"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E188" s="9"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="18" t="e">
-        <f>VLOOKUP(H188,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H188" s="23"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H188" s="21"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
       <c r="B189" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E189" s="9"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="18" t="e">
-        <f>VLOOKUP(H189,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H189" s="23"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
       <c r="B190" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E190" s="9"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="18" t="e">
-        <f>VLOOKUP(H190,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H190" s="23"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H190" s="21"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
       <c r="B191" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E191" s="9"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="18" t="e">
-        <f>VLOOKUP(H191,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H191" s="23"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H191" s="21"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
       <c r="B192" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E192" s="9"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="18" t="e">
-        <f>VLOOKUP(H192,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H192" s="23"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H192" s="21"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
       <c r="B193" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E193" s="9"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="18" t="e">
-        <f>VLOOKUP(H193,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H193" s="23"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H193" s="21"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
       <c r="B194" s="9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="18" t="e">
-        <f>VLOOKUP(H194,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H194" s="23"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
       <c r="B195" s="9" t="e">
-        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_Mes,2,)</f>
+        <f t="shared" ref="B195:B258" si="9">VLOOKUP(C195,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9" t="e">
-        <f t="shared" ref="D195:D258" si="7">VLOOKUP(E195,Tabla_Region,2,)</f>
+        <f t="shared" ref="D195:D258" si="10">VLOOKUP(E195,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="18" t="e">
-        <f>VLOOKUP(H195,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H195" s="23"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="1" t="e">
+        <f t="shared" ref="G195:G258" si="11">VLOOKUP(H195,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H195" s="21"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
       <c r="B196" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E196" s="9"/>
-      <c r="F196" s="16"/>
-      <c r="G196" s="18" t="e">
-        <f>VLOOKUP(H196,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H196" s="23"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H196" s="21"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
       <c r="B197" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E197" s="9"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="18" t="e">
-        <f>VLOOKUP(H197,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H197" s="23"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H197" s="21"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
       <c r="B198" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E198" s="9"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="18" t="e">
-        <f>VLOOKUP(H198,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" s="23"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H198" s="21"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
       <c r="B199" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E199" s="9"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="18" t="e">
-        <f>VLOOKUP(H199,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H199" s="23"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H199" s="21"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
       <c r="B200" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E200" s="9"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="18" t="e">
-        <f>VLOOKUP(H200,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H200" s="23"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H200" s="21"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
       <c r="B201" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E201" s="9"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="18" t="e">
-        <f>VLOOKUP(H201,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H201" s="23"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H201" s="21"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E202" s="9"/>
-      <c r="F202" s="16"/>
-      <c r="G202" s="18" t="e">
-        <f>VLOOKUP(H202,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H202" s="23"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E203" s="9"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="18" t="e">
-        <f>VLOOKUP(H203,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H203" s="23"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H203" s="21"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E204" s="9"/>
-      <c r="F204" s="16"/>
-      <c r="G204" s="18" t="e">
-        <f>VLOOKUP(H204,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H204" s="23"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H204" s="21"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E205" s="9"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="18" t="e">
-        <f>VLOOKUP(H205,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H205" s="23"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H205" s="21"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
       <c r="B206" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E206" s="9"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="18" t="e">
-        <f>VLOOKUP(H206,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H206" s="23"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H206" s="21"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
       <c r="B207" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E207" s="9"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="18" t="e">
-        <f>VLOOKUP(H207,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H207" s="23"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H207" s="21"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
       <c r="B208" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E208" s="9"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="18" t="e">
-        <f>VLOOKUP(H208,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H208" s="23"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H208" s="21"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
       <c r="B209" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E209" s="9"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="18" t="e">
-        <f>VLOOKUP(H209,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H209" s="23"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H209" s="21"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
       <c r="B210" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E210" s="9"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="18" t="e">
-        <f>VLOOKUP(H210,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H210" s="23"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H210" s="21"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
       <c r="B211" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E211" s="9"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="18" t="e">
-        <f>VLOOKUP(H211,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H211" s="23"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H211" s="21"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
       <c r="B212" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E212" s="9"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="18" t="e">
-        <f>VLOOKUP(H212,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H212" s="23"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H212" s="21"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
       <c r="B213" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E213" s="9"/>
-      <c r="F213" s="16"/>
-      <c r="G213" s="18" t="e">
-        <f>VLOOKUP(H213,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H213" s="23"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H213" s="21"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
       <c r="B214" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E214" s="9"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="18" t="e">
-        <f>VLOOKUP(H214,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H214" s="23"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H214" s="21"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
       <c r="B215" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E215" s="9"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="18" t="e">
-        <f>VLOOKUP(H215,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H215" s="23"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H215" s="21"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
       <c r="B216" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E216" s="9"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="18" t="e">
-        <f>VLOOKUP(H216,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H216" s="23"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H216" s="21"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
       <c r="B217" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E217" s="9"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="18" t="e">
-        <f>VLOOKUP(H217,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H217" s="23"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H217" s="21"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
       <c r="B218" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E218" s="9"/>
-      <c r="F218" s="16"/>
-      <c r="G218" s="18" t="e">
-        <f>VLOOKUP(H218,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H218" s="23"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H218" s="21"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
       <c r="B219" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E219" s="9"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="18" t="e">
-        <f>VLOOKUP(H219,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H219" s="23"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H219" s="21"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
       <c r="B220" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E220" s="9"/>
-      <c r="F220" s="16"/>
-      <c r="G220" s="18" t="e">
-        <f>VLOOKUP(H220,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H220" s="23"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H220" s="21"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
       <c r="B221" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E221" s="9"/>
-      <c r="F221" s="16"/>
-      <c r="G221" s="18" t="e">
-        <f>VLOOKUP(H221,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H221" s="23"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H221" s="21"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
       <c r="B222" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E222" s="9"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="18" t="e">
-        <f>VLOOKUP(H222,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H222" s="23"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H222" s="21"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
       <c r="B223" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E223" s="9"/>
-      <c r="F223" s="16"/>
-      <c r="G223" s="18" t="e">
-        <f>VLOOKUP(H223,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H223" s="23"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H223" s="21"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="B224" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E224" s="9"/>
-      <c r="F224" s="16"/>
-      <c r="G224" s="18" t="e">
-        <f>VLOOKUP(H224,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H224" s="23"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H224" s="21"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
       <c r="B225" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E225" s="9"/>
-      <c r="F225" s="16"/>
-      <c r="G225" s="18" t="e">
-        <f>VLOOKUP(H225,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H225" s="23"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H225" s="21"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
       <c r="B226" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E226" s="9"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="18" t="e">
-        <f>VLOOKUP(H226,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H226" s="23"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H226" s="21"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
       <c r="B227" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E227" s="9"/>
-      <c r="F227" s="16"/>
-      <c r="G227" s="18" t="e">
-        <f>VLOOKUP(H227,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H227" s="23"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H227" s="21"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
       <c r="B228" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E228" s="9"/>
-      <c r="F228" s="16"/>
-      <c r="G228" s="18" t="e">
-        <f>VLOOKUP(H228,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H228" s="23"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H228" s="21"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
       <c r="B229" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E229" s="9"/>
-      <c r="F229" s="16"/>
-      <c r="G229" s="18" t="e">
-        <f>VLOOKUP(H229,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H229" s="23"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H229" s="21"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
       <c r="B230" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="9"/>
       <c r="D230" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E230" s="9"/>
-      <c r="F230" s="16"/>
-      <c r="G230" s="18" t="e">
-        <f>VLOOKUP(H230,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H230" s="23"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H230" s="21"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
       <c r="B231" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E231" s="9"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="18" t="e">
-        <f>VLOOKUP(H231,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H231" s="23"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H231" s="21"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
       <c r="B232" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="9"/>
       <c r="D232" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E232" s="9"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="18" t="e">
-        <f>VLOOKUP(H232,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H232" s="23"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H232" s="21"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
       <c r="B233" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E233" s="9"/>
-      <c r="F233" s="16"/>
-      <c r="G233" s="18" t="e">
-        <f>VLOOKUP(H233,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H233" s="23"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H233" s="21"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
       <c r="B234" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="9"/>
       <c r="D234" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E234" s="9"/>
-      <c r="F234" s="16"/>
-      <c r="G234" s="18" t="e">
-        <f>VLOOKUP(H234,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H234" s="23"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H234" s="21"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
       <c r="B235" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E235" s="9"/>
-      <c r="F235" s="16"/>
-      <c r="G235" s="18" t="e">
-        <f>VLOOKUP(H235,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H235" s="23"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H235" s="21"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
       <c r="B236" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="9"/>
       <c r="D236" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E236" s="9"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="18" t="e">
-        <f>VLOOKUP(H236,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H236" s="23"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H236" s="21"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
       <c r="B237" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E237" s="9"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="18" t="e">
-        <f>VLOOKUP(H237,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H237" s="23"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H237" s="21"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
       <c r="B238" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="9"/>
       <c r="D238" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E238" s="9"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="18" t="e">
-        <f>VLOOKUP(H238,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H238" s="23"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H238" s="21"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
       <c r="B239" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="9"/>
       <c r="D239" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E239" s="9"/>
-      <c r="F239" s="16"/>
-      <c r="G239" s="18" t="e">
-        <f>VLOOKUP(H239,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H239" s="23"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H239" s="21"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
       <c r="B240" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="9"/>
       <c r="D240" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E240" s="9"/>
-      <c r="F240" s="16"/>
-      <c r="G240" s="18" t="e">
-        <f>VLOOKUP(H240,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H240" s="23"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H240" s="21"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
       <c r="B241" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="9"/>
       <c r="D241" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E241" s="9"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="18" t="e">
-        <f>VLOOKUP(H241,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H241" s="23"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H241" s="21"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
       <c r="B242" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="9"/>
       <c r="D242" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E242" s="9"/>
-      <c r="F242" s="16"/>
-      <c r="G242" s="18" t="e">
-        <f>VLOOKUP(H242,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H242" s="23"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H242" s="21"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
       <c r="B243" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="9"/>
       <c r="D243" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E243" s="9"/>
-      <c r="F243" s="16"/>
-      <c r="G243" s="18" t="e">
-        <f>VLOOKUP(H243,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H243" s="23"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H243" s="21"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
       <c r="B244" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E244" s="9"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="18" t="e">
-        <f>VLOOKUP(H244,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H244" s="23"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H244" s="21"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
       <c r="B245" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E245" s="9"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="18" t="e">
-        <f>VLOOKUP(H245,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H245" s="23"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H245" s="21"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
       <c r="B246" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="9"/>
       <c r="D246" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E246" s="9"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="18" t="e">
-        <f>VLOOKUP(H246,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H246" s="23"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H246" s="21"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
       <c r="B247" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E247" s="9"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="18" t="e">
-        <f>VLOOKUP(H247,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H247" s="23"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H247" s="21"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
       <c r="B248" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="9"/>
       <c r="D248" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E248" s="9"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="18" t="e">
-        <f>VLOOKUP(H248,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H248" s="23"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H248" s="21"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
       <c r="B249" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E249" s="9"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="18" t="e">
-        <f>VLOOKUP(H249,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H249" s="23"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H249" s="21"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
       <c r="B250" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="9"/>
       <c r="D250" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E250" s="9"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="18" t="e">
-        <f>VLOOKUP(H250,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H250" s="23"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H250" s="21"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
       <c r="B251" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="9"/>
       <c r="D251" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E251" s="9"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="18" t="e">
-        <f>VLOOKUP(H251,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H251" s="23"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H251" s="21"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
       <c r="B252" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="9"/>
       <c r="D252" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E252" s="9"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="18" t="e">
-        <f>VLOOKUP(H252,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H252" s="23"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H252" s="21"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
       <c r="B253" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="9"/>
       <c r="D253" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E253" s="9"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="18" t="e">
-        <f>VLOOKUP(H253,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H253" s="23"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H253" s="21"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
       <c r="B254" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="9"/>
       <c r="D254" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E254" s="9"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="18" t="e">
-        <f>VLOOKUP(H254,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H254" s="23"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H254" s="21"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
       <c r="B255" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="9"/>
       <c r="D255" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E255" s="9"/>
-      <c r="F255" s="16"/>
-      <c r="G255" s="18" t="e">
-        <f>VLOOKUP(H255,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H255" s="23"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H255" s="21"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
       <c r="B256" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="9"/>
       <c r="D256" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E256" s="9"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="18" t="e">
-        <f>VLOOKUP(H256,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H256" s="23"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H256" s="21"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
       <c r="B257" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="9"/>
       <c r="D257" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E257" s="9"/>
-      <c r="F257" s="16"/>
-      <c r="G257" s="18" t="e">
-        <f>VLOOKUP(H257,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H257" s="23"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H257" s="21"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
       <c r="B258" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="9"/>
       <c r="D258" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E258" s="9"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="18" t="e">
-        <f>VLOOKUP(H258,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H258" s="23"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="1" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H258" s="21"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
       <c r="B259" s="9" t="e">
-        <f t="shared" ref="B259:B311" si="8">VLOOKUP(C259,Tabla_Mes,2,)</f>
+        <f t="shared" ref="B259:B311" si="12">VLOOKUP(C259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="9"/>
       <c r="D259" s="9" t="e">
-        <f t="shared" ref="D259:D311" si="9">VLOOKUP(E259,Tabla_Region,2,)</f>
+        <f t="shared" ref="D259:D311" si="13">VLOOKUP(E259,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E259" s="9"/>
-      <c r="F259" s="16"/>
-      <c r="G259" s="18" t="e">
-        <f>VLOOKUP(H259,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H259" s="23"/>
+      <c r="F259" s="15"/>
+      <c r="G259" s="1" t="e">
+        <f t="shared" ref="G259:G322" si="14">VLOOKUP(H259,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H259" s="21"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
       <c r="B260" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="9"/>
       <c r="D260" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E260" s="9"/>
-      <c r="F260" s="16"/>
-      <c r="G260" s="18" t="e">
-        <f>VLOOKUP(H260,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H260" s="23"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H260" s="21"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
       <c r="B261" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="9"/>
       <c r="D261" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E261" s="9"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="18" t="e">
-        <f>VLOOKUP(H261,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H261" s="23"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H261" s="21"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
       <c r="B262" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="9"/>
       <c r="D262" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E262" s="9"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="18" t="e">
-        <f>VLOOKUP(H262,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H262" s="23"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H262" s="21"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
       <c r="B263" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="9"/>
       <c r="D263" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E263" s="9"/>
-      <c r="F263" s="16"/>
-      <c r="G263" s="18" t="e">
-        <f>VLOOKUP(H263,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H263" s="23"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H263" s="21"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
       <c r="B264" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="9"/>
       <c r="D264" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E264" s="9"/>
-      <c r="F264" s="16"/>
-      <c r="G264" s="18" t="e">
-        <f>VLOOKUP(H264,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H264" s="23"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H264" s="21"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
       <c r="B265" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="9"/>
       <c r="D265" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E265" s="9"/>
-      <c r="F265" s="16"/>
-      <c r="G265" s="18" t="e">
-        <f>VLOOKUP(H265,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H265" s="23"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H265" s="21"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
       <c r="B266" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E266" s="9"/>
-      <c r="F266" s="16"/>
-      <c r="G266" s="18" t="e">
-        <f>VLOOKUP(H266,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H266" s="23"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H266" s="21"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
       <c r="B267" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E267" s="9"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="18" t="e">
-        <f>VLOOKUP(H267,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H267" s="23"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H267" s="21"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
       <c r="B268" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="9"/>
       <c r="D268" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E268" s="9"/>
-      <c r="F268" s="16"/>
-      <c r="G268" s="18" t="e">
-        <f>VLOOKUP(H268,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H268" s="23"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H268" s="21"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
       <c r="B269" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="9"/>
       <c r="D269" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E269" s="9"/>
-      <c r="F269" s="16"/>
-      <c r="G269" s="18" t="e">
-        <f>VLOOKUP(H269,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H269" s="23"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H269" s="21"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
       <c r="B270" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="9"/>
       <c r="D270" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E270" s="9"/>
-      <c r="F270" s="16"/>
-      <c r="G270" s="18" t="e">
-        <f>VLOOKUP(H270,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H270" s="23"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H270" s="21"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
       <c r="B271" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="9"/>
       <c r="D271" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E271" s="9"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="18" t="e">
-        <f>VLOOKUP(H271,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H271" s="23"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H271" s="21"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
       <c r="B272" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="9"/>
       <c r="D272" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E272" s="9"/>
-      <c r="F272" s="16"/>
-      <c r="G272" s="18" t="e">
-        <f>VLOOKUP(H272,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H272" s="23"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H272" s="21"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
       <c r="B273" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="9"/>
       <c r="D273" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E273" s="9"/>
-      <c r="F273" s="16"/>
-      <c r="G273" s="18" t="e">
-        <f>VLOOKUP(H273,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H273" s="23"/>
+      <c r="F273" s="15"/>
+      <c r="G273" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H273" s="21"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
       <c r="B274" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="9"/>
       <c r="D274" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E274" s="9"/>
-      <c r="F274" s="16"/>
-      <c r="G274" s="18" t="e">
-        <f>VLOOKUP(H274,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H274" s="23"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H274" s="21"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
       <c r="B275" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="9"/>
       <c r="D275" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E275" s="9"/>
-      <c r="F275" s="16"/>
-      <c r="G275" s="18" t="e">
-        <f>VLOOKUP(H275,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H275" s="23"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H275" s="21"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
       <c r="B276" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="9"/>
       <c r="D276" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E276" s="9"/>
-      <c r="F276" s="16"/>
-      <c r="G276" s="18" t="e">
-        <f>VLOOKUP(H276,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H276" s="23"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H276" s="21"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
       <c r="B277" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="9"/>
       <c r="D277" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E277" s="9"/>
-      <c r="F277" s="16"/>
-      <c r="G277" s="18" t="e">
-        <f>VLOOKUP(H277,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H277" s="23"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H277" s="21"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
       <c r="B278" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="9"/>
       <c r="D278" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E278" s="9"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="18" t="e">
-        <f>VLOOKUP(H278,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H278" s="23"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H278" s="21"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
       <c r="B279" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="9"/>
       <c r="D279" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E279" s="9"/>
-      <c r="F279" s="16"/>
-      <c r="G279" s="18" t="e">
-        <f>VLOOKUP(H279,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H279" s="23"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H279" s="21"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
       <c r="B280" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="9"/>
       <c r="D280" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E280" s="9"/>
-      <c r="F280" s="16"/>
-      <c r="G280" s="18" t="e">
-        <f>VLOOKUP(H280,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H280" s="23"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H280" s="21"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
       <c r="B281" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="9"/>
       <c r="D281" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E281" s="9"/>
-      <c r="F281" s="16"/>
-      <c r="G281" s="18" t="e">
-        <f>VLOOKUP(H281,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H281" s="23"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H281" s="21"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
       <c r="B282" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="9"/>
       <c r="D282" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E282" s="9"/>
-      <c r="F282" s="16"/>
-      <c r="G282" s="18" t="e">
-        <f>VLOOKUP(H282,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H282" s="23"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H282" s="21"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
       <c r="B283" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="9"/>
       <c r="D283" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E283" s="9"/>
-      <c r="F283" s="16"/>
-      <c r="G283" s="18" t="e">
-        <f>VLOOKUP(H283,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H283" s="23"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H283" s="21"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
       <c r="B284" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="9"/>
       <c r="D284" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E284" s="9"/>
-      <c r="F284" s="16"/>
-      <c r="G284" s="18" t="e">
-        <f>VLOOKUP(H284,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H284" s="23"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H284" s="21"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
       <c r="B285" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="9"/>
       <c r="D285" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E285" s="9"/>
-      <c r="F285" s="16"/>
-      <c r="G285" s="18" t="e">
-        <f>VLOOKUP(H285,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H285" s="23"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H285" s="21"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
       <c r="B286" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="9"/>
       <c r="D286" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E286" s="9"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="18" t="e">
-        <f>VLOOKUP(H286,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H286" s="23"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H286" s="21"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
       <c r="B287" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E287" s="9"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="18" t="e">
-        <f>VLOOKUP(H287,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H287" s="23"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H287" s="21"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
       <c r="B288" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E288" s="9"/>
-      <c r="F288" s="16"/>
-      <c r="G288" s="18" t="e">
-        <f>VLOOKUP(H288,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H288" s="23"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H288" s="21"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
       <c r="B289" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E289" s="9"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="18" t="e">
-        <f>VLOOKUP(H289,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H289" s="23"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H289" s="21"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
       <c r="B290" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="9"/>
       <c r="D290" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E290" s="9"/>
-      <c r="F290" s="16"/>
-      <c r="G290" s="18" t="e">
-        <f>VLOOKUP(H290,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H290" s="23"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H290" s="21"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
       <c r="B291" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E291" s="9"/>
-      <c r="F291" s="16"/>
-      <c r="G291" s="18" t="e">
-        <f>VLOOKUP(H291,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H291" s="23"/>
+      <c r="F291" s="15"/>
+      <c r="G291" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H291" s="21"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
       <c r="B292" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E292" s="9"/>
-      <c r="F292" s="16"/>
-      <c r="G292" s="18" t="e">
-        <f>VLOOKUP(H292,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H292" s="23"/>
+      <c r="F292" s="15"/>
+      <c r="G292" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H292" s="21"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
       <c r="B293" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E293" s="9"/>
-      <c r="F293" s="16"/>
-      <c r="G293" s="18" t="e">
-        <f>VLOOKUP(H293,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H293" s="23"/>
+      <c r="F293" s="15"/>
+      <c r="G293" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H293" s="21"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
       <c r="B294" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E294" s="9"/>
-      <c r="F294" s="16"/>
-      <c r="G294" s="18" t="e">
-        <f>VLOOKUP(H294,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H294" s="23"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H294" s="21"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
       <c r="B295" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E295" s="9"/>
-      <c r="F295" s="16"/>
-      <c r="G295" s="18" t="e">
-        <f>VLOOKUP(H295,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H295" s="23"/>
+      <c r="F295" s="15"/>
+      <c r="G295" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H295" s="21"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
       <c r="B296" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E296" s="9"/>
-      <c r="F296" s="16"/>
-      <c r="G296" s="18" t="e">
-        <f>VLOOKUP(H296,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H296" s="23"/>
+      <c r="F296" s="15"/>
+      <c r="G296" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H296" s="21"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
       <c r="B297" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E297" s="9"/>
-      <c r="F297" s="16"/>
-      <c r="G297" s="18" t="e">
-        <f>VLOOKUP(H297,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H297" s="23"/>
+      <c r="F297" s="15"/>
+      <c r="G297" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H297" s="21"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
       <c r="B298" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E298" s="9"/>
-      <c r="F298" s="16"/>
-      <c r="G298" s="18" t="e">
-        <f>VLOOKUP(H298,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H298" s="23"/>
+      <c r="F298" s="15"/>
+      <c r="G298" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H298" s="21"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
       <c r="B299" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E299" s="9"/>
-      <c r="F299" s="16"/>
-      <c r="G299" s="18" t="e">
-        <f>VLOOKUP(H299,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H299" s="23"/>
+      <c r="F299" s="15"/>
+      <c r="G299" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H299" s="21"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
       <c r="B300" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E300" s="9"/>
-      <c r="F300" s="16"/>
-      <c r="G300" s="18" t="e">
-        <f>VLOOKUP(H300,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H300" s="23"/>
+      <c r="F300" s="15"/>
+      <c r="G300" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H300" s="21"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
       <c r="B301" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E301" s="9"/>
-      <c r="F301" s="16"/>
-      <c r="G301" s="18" t="e">
-        <f>VLOOKUP(H301,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H301" s="23"/>
+      <c r="F301" s="15"/>
+      <c r="G301" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H301" s="21"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
       <c r="B302" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E302" s="9"/>
-      <c r="F302" s="16"/>
-      <c r="G302" s="18" t="e">
-        <f>VLOOKUP(H302,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H302" s="23"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H302" s="21"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
       <c r="B303" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E303" s="9"/>
-      <c r="F303" s="16"/>
-      <c r="G303" s="18" t="e">
-        <f>VLOOKUP(H303,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H303" s="23"/>
+      <c r="F303" s="15"/>
+      <c r="G303" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H303" s="21"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
       <c r="B304" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E304" s="9"/>
-      <c r="F304" s="17"/>
-      <c r="G304" s="18" t="e">
-        <f>VLOOKUP(H304,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H304" s="23"/>
+      <c r="F304" s="15"/>
+      <c r="G304" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H304" s="21"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
       <c r="B305" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E305" s="9"/>
-      <c r="F305" s="17"/>
-      <c r="G305" s="18" t="e">
-        <f>VLOOKUP(H305,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H305" s="23"/>
+      <c r="F305" s="15"/>
+      <c r="G305" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H305" s="21"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
       <c r="B306" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="9"/>
       <c r="D306" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E306" s="9"/>
-      <c r="F306" s="17"/>
-      <c r="G306" s="18" t="e">
-        <f>VLOOKUP(H306,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H306" s="23"/>
+      <c r="F306" s="15"/>
+      <c r="G306" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H306" s="21"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
       <c r="B307" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="9"/>
       <c r="D307" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E307" s="9"/>
-      <c r="F307" s="17"/>
-      <c r="G307" s="18" t="e">
-        <f>VLOOKUP(H307,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H307" s="23"/>
+      <c r="F307" s="15"/>
+      <c r="G307" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H307" s="21"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
       <c r="B308" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="9"/>
       <c r="D308" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E308" s="9"/>
-      <c r="F308" s="17"/>
-      <c r="G308" s="18" t="e">
-        <f>VLOOKUP(H308,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H308" s="23"/>
+      <c r="F308" s="15"/>
+      <c r="G308" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H308" s="21"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
       <c r="B309" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="9"/>
       <c r="D309" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E309" s="9"/>
-      <c r="F309" s="17"/>
-      <c r="G309" s="18" t="e">
-        <f>VLOOKUP(H309,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H309" s="23"/>
+      <c r="F309" s="15"/>
+      <c r="G309" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H309" s="21"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
       <c r="B310" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="9"/>
       <c r="D310" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E310" s="9"/>
-      <c r="F310" s="17"/>
-      <c r="G310" s="18" t="e">
-        <f>VLOOKUP(H310,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H310" s="23"/>
+      <c r="F310" s="15"/>
+      <c r="G310" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H310" s="21"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
       <c r="B311" s="9" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="9"/>
       <c r="D311" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E311" s="9"/>
-      <c r="F311" s="10"/>
-      <c r="G311" s="18" t="e">
-        <f>VLOOKUP(H311,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H311" s="23"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H311" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3Xu7i+WxVD0OlTuwraIn/NQiwh/e263tbHSJxRjB7/82i15fHraD+FPySDN+L4pakxBsloO3k7INbYS4CMzhew==" saltValue="lZt6XrJVKiXodfFMf0G89g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tjOGl2R0AGvRlwr0ZdNnI1ezdowdTAFm2R2FXn4K9zeKBTxKsTbrOPI0OPjSpTC6X8+MmH9RPwxce1WOE6GGVA==" saltValue="cdoE9nYmjyBI1MK2S0pHmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{6D2F6D80-F246-4203-A0F8-56A4031B2F0B}">
@@ -6802,10 +6828,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6829,10 +6855,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="16">
         <v>1</v>
       </c>
     </row>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA202F51-1EDE-40C9-94A3-7CAB49300BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D018A-CF0C-4EC8-9344-4D8C117721AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -46,21 +46,7 @@
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72F1B3F1-5BEA-4805-98B4-F8FC29DBB3F1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Año al que corresponde el registro.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{73D59C6B-8AE8-4D25-B5FE-4BC711110FAF}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{4CC44500-5940-4B5F-A170-3BBC06527645}">
       <text>
         <r>
           <rPr>
@@ -70,37 +56,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Mes en el que se instalarón los Fotovoltaicos.
-</t>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{583801B3-EE14-4C35-BCED-63A25218229A}">
-      <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Región en la que se implementa.
+          <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D94BABF3-5F93-46CE-A336-A09E74E3C02A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cantidad de fotovoltaico instalados (Equivalente a hogares).</t>
         </r>
       </text>
     </comment>
@@ -109,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Año</t>
   </si>
@@ -174,18 +140,6 @@
     <t>Selva</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro.</t>
-  </si>
-  <si>
-    <t>Mes en el que se instalarón los Fotovoltaicos.</t>
-  </si>
-  <si>
-    <t>Región en la que se implementa.</t>
-  </si>
-  <si>
-    <t>Cantidad de fotovoltaico instalados (Equivalente a hogares).</t>
-  </si>
-  <si>
     <t>Mes de inicio de operaciones</t>
   </si>
   <si>
@@ -195,13 +149,25 @@
     <t>UNIDAD ER</t>
   </si>
   <si>
-    <t>Unidad del fotovoltaico</t>
-  </si>
-  <si>
     <t>Nª</t>
   </si>
   <si>
     <t>Fotovoltaico</t>
+  </si>
+  <si>
+    <t>Año en que se compró el SFV. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Mes en el que se instalaron los SFV. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Región en la que se implementa. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Cantidad de sistemas fotovoltaicos instalados. Inserte su dato</t>
+  </si>
+  <si>
+    <t>Unidad del fotovoltaico. Seleccione desplegable.</t>
   </si>
 </sst>
 </file>
@@ -260,14 +226,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -400,10 +372,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -723,16 +714,16 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
@@ -746,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -758,321 +749,231 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="20" t="s">
-        <v>28</v>
+      <c r="H2" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="22">
         <v>2016</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="23">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Mes,2,)</f>
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="24">
         <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_Region,2,)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="25">
         <v>750</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <f t="shared" ref="G3:G66" si="2">VLOOKUP(H3,Tabla_ER,2,)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
+      <c r="H3" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="14">
-        <v>435</v>
-      </c>
-      <c r="G4" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="14">
-        <v>684</v>
-      </c>
-      <c r="G5" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="14">
-        <v>286</v>
-      </c>
-      <c r="G6" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="14">
-        <v>2560</v>
-      </c>
-      <c r="G7" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3024</v>
-      </c>
-      <c r="G8" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="14">
-        <v>2560</v>
-      </c>
-      <c r="G9" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4544</v>
-      </c>
-      <c r="G10" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15">
-        <v>5444</v>
-      </c>
-      <c r="G11" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="15">
-        <v>56565</v>
-      </c>
-      <c r="G12" s="1">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -1091,7 +992,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -1110,7 +1011,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1129,7 +1030,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1148,7 +1049,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1167,7 +1068,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1186,7 +1087,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1205,7 +1106,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -1224,7 +1125,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1243,7 +1144,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1262,7 +1163,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -1281,7 +1182,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="21"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -1300,7 +1201,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="21"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -1319,7 +1220,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1338,7 +1239,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1357,7 +1258,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="21"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1376,7 +1277,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H28" s="21"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1395,7 +1296,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
@@ -1414,7 +1315,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -1433,7 +1334,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -1452,7 +1353,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -1471,7 +1372,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -1490,7 +1391,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -1509,7 +1410,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -1528,7 +1429,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -1547,7 +1448,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -1566,7 +1467,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
@@ -1585,7 +1486,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H39" s="21"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
@@ -1604,7 +1505,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H40" s="21"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
@@ -1623,7 +1524,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H41" s="21"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
@@ -1642,7 +1543,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H42" s="21"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
@@ -1661,7 +1562,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H43" s="21"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
@@ -1680,7 +1581,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H44" s="21"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
@@ -1699,7 +1600,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
@@ -1718,7 +1619,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
@@ -1737,7 +1638,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="21"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
@@ -1756,7 +1657,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -1775,7 +1676,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="21"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
@@ -1794,7 +1695,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H50" s="21"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
@@ -1813,7 +1714,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H51" s="21"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
@@ -1832,7 +1733,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H52" s="21"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -1851,7 +1752,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
@@ -1870,7 +1771,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H54" s="21"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -1889,7 +1790,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H55" s="21"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
@@ -1908,7 +1809,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H56" s="21"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
@@ -1927,7 +1828,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
@@ -1946,7 +1847,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H58" s="21"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
@@ -1965,7 +1866,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H59" s="21"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
@@ -1984,7 +1885,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H60" s="21"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
@@ -2003,7 +1904,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H61" s="21"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
@@ -2022,7 +1923,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H62" s="21"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
@@ -2041,7 +1942,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H63" s="21"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
@@ -2060,7 +1961,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H64" s="21"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
@@ -2079,7 +1980,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H65" s="21"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
@@ -2098,7 +1999,7 @@
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="H66" s="21"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
@@ -2117,7 +2018,7 @@
         <f t="shared" ref="G67:G130" si="5">VLOOKUP(H67,Tabla_ER,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="H67" s="21"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
@@ -2136,7 +2037,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
@@ -2155,7 +2056,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H69" s="21"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
@@ -2174,7 +2075,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H70" s="21"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -2193,7 +2094,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H71" s="21"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
@@ -2212,7 +2113,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H72" s="21"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
@@ -2231,7 +2132,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H73" s="21"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
@@ -2250,7 +2151,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H74" s="21"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
@@ -2269,7 +2170,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H75" s="21"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
@@ -2288,7 +2189,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H76" s="21"/>
+      <c r="H76" s="20"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -2307,7 +2208,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H77" s="21"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
@@ -2326,7 +2227,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H78" s="21"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
@@ -2345,7 +2246,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H79" s="21"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
@@ -2364,7 +2265,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H80" s="21"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
@@ -2383,7 +2284,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H81" s="21"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
@@ -2402,7 +2303,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H82" s="21"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
@@ -2421,7 +2322,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H83" s="21"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
@@ -2440,7 +2341,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H84" s="21"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
@@ -2459,7 +2360,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="21"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
@@ -2478,7 +2379,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H86" s="21"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
@@ -2497,7 +2398,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H87" s="21"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
@@ -2516,7 +2417,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H88" s="21"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
@@ -2535,7 +2436,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H89" s="21"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
@@ -2554,7 +2455,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H90" s="21"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
@@ -2573,7 +2474,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H91" s="21"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
@@ -2592,7 +2493,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H92" s="21"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
@@ -2611,7 +2512,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="21"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
@@ -2630,7 +2531,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H94" s="21"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
@@ -2649,7 +2550,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H95" s="21"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
@@ -2668,7 +2569,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H96" s="21"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
@@ -2687,7 +2588,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H97" s="21"/>
+      <c r="H97" s="20"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
@@ -2706,7 +2607,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H98" s="21"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
@@ -2725,7 +2626,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H99" s="21"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
@@ -2744,7 +2645,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H100" s="21"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
@@ -2763,7 +2664,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H101" s="21"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
@@ -2782,7 +2683,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H102" s="21"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
@@ -2801,7 +2702,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H103" s="21"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
@@ -2820,7 +2721,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H104" s="21"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
@@ -2839,7 +2740,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H105" s="21"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
@@ -2858,7 +2759,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H106" s="21"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
@@ -2877,7 +2778,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H107" s="21"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
@@ -2896,7 +2797,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H108" s="21"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
@@ -2915,7 +2816,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H109" s="21"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
@@ -2934,7 +2835,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H110" s="21"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
@@ -2953,7 +2854,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H111" s="21"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
@@ -2972,7 +2873,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H112" s="21"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
@@ -2991,7 +2892,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H113" s="21"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
@@ -3010,7 +2911,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H114" s="21"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
@@ -3029,7 +2930,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H115" s="21"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
@@ -3048,7 +2949,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H116" s="21"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
@@ -3067,7 +2968,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H117" s="21"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
@@ -3086,7 +2987,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H118" s="21"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
@@ -3105,7 +3006,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H119" s="21"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
@@ -3124,7 +3025,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H120" s="21"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
@@ -3143,7 +3044,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H121" s="21"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
@@ -3162,7 +3063,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H122" s="21"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
@@ -3181,7 +3082,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H123" s="21"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
@@ -3200,7 +3101,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H124" s="21"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
@@ -3219,7 +3120,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H125" s="21"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
@@ -3238,7 +3139,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H126" s="21"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
@@ -3257,7 +3158,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H127" s="21"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
@@ -3276,7 +3177,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H128" s="21"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
@@ -3295,7 +3196,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H129" s="21"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
@@ -3314,7 +3215,7 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H130" s="21"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
@@ -3333,7 +3234,7 @@
         <f t="shared" ref="G131:G194" si="8">VLOOKUP(H131,Tabla_ER,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="H131" s="21"/>
+      <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
@@ -3352,7 +3253,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H132" s="21"/>
+      <c r="H132" s="20"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
@@ -3371,7 +3272,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H133" s="21"/>
+      <c r="H133" s="20"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
@@ -3390,7 +3291,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H134" s="21"/>
+      <c r="H134" s="20"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
@@ -3409,7 +3310,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H135" s="21"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
@@ -3428,7 +3329,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H136" s="21"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
@@ -3447,7 +3348,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H137" s="21"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
@@ -3466,7 +3367,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H138" s="21"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
@@ -3485,7 +3386,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H139" s="21"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
@@ -3504,7 +3405,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H140" s="21"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
@@ -3523,7 +3424,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H141" s="21"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
@@ -3542,7 +3443,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H142" s="21"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
@@ -3561,7 +3462,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H143" s="21"/>
+      <c r="H143" s="20"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
@@ -3580,7 +3481,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H144" s="21"/>
+      <c r="H144" s="20"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
@@ -3599,7 +3500,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H145" s="21"/>
+      <c r="H145" s="20"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
@@ -3618,7 +3519,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H146" s="21"/>
+      <c r="H146" s="20"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
@@ -3637,7 +3538,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H147" s="21"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
@@ -3656,7 +3557,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H148" s="21"/>
+      <c r="H148" s="20"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
@@ -3675,7 +3576,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H149" s="21"/>
+      <c r="H149" s="20"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
@@ -3694,7 +3595,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H150" s="21"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
@@ -3713,7 +3614,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H151" s="21"/>
+      <c r="H151" s="20"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
@@ -3732,7 +3633,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H152" s="21"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
@@ -3751,7 +3652,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H153" s="21"/>
+      <c r="H153" s="20"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
@@ -3770,7 +3671,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H154" s="21"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
@@ -3789,7 +3690,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H155" s="21"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
@@ -3808,7 +3709,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H156" s="21"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
@@ -3827,7 +3728,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H157" s="21"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
@@ -3846,7 +3747,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H158" s="21"/>
+      <c r="H158" s="20"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
@@ -3865,7 +3766,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H159" s="21"/>
+      <c r="H159" s="20"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
@@ -3884,7 +3785,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H160" s="21"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
@@ -3903,7 +3804,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H161" s="21"/>
+      <c r="H161" s="20"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
@@ -3922,7 +3823,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H162" s="21"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
@@ -3941,7 +3842,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H163" s="21"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
@@ -3960,7 +3861,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H164" s="21"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
@@ -3979,7 +3880,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H165" s="21"/>
+      <c r="H165" s="20"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
@@ -3998,7 +3899,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H166" s="21"/>
+      <c r="H166" s="20"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
@@ -4017,7 +3918,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H167" s="21"/>
+      <c r="H167" s="20"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
@@ -4036,7 +3937,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H168" s="21"/>
+      <c r="H168" s="20"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
@@ -4055,7 +3956,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H169" s="21"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
@@ -4074,7 +3975,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H170" s="21"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
@@ -4093,7 +3994,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H171" s="21"/>
+      <c r="H171" s="20"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
@@ -4112,7 +4013,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H172" s="21"/>
+      <c r="H172" s="20"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
@@ -4131,7 +4032,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H173" s="21"/>
+      <c r="H173" s="20"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
@@ -4150,7 +4051,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H174" s="21"/>
+      <c r="H174" s="20"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
@@ -4169,7 +4070,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H175" s="21"/>
+      <c r="H175" s="20"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
@@ -4188,7 +4089,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H176" s="21"/>
+      <c r="H176" s="20"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
@@ -4207,7 +4108,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H177" s="21"/>
+      <c r="H177" s="20"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
@@ -4226,7 +4127,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H178" s="21"/>
+      <c r="H178" s="20"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
@@ -4245,7 +4146,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H179" s="21"/>
+      <c r="H179" s="20"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
@@ -4264,7 +4165,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H180" s="21"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
@@ -4283,7 +4184,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H181" s="21"/>
+      <c r="H181" s="20"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
@@ -4302,7 +4203,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H182" s="21"/>
+      <c r="H182" s="20"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
@@ -4321,7 +4222,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H183" s="21"/>
+      <c r="H183" s="20"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
@@ -4340,7 +4241,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H184" s="21"/>
+      <c r="H184" s="20"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
@@ -4359,7 +4260,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H185" s="21"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
@@ -4378,7 +4279,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H186" s="21"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
@@ -4397,7 +4298,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H187" s="21"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
@@ -4416,7 +4317,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H188" s="21"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
@@ -4435,7 +4336,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H189" s="21"/>
+      <c r="H189" s="20"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
@@ -4454,7 +4355,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H190" s="21"/>
+      <c r="H190" s="20"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="9"/>
@@ -4473,7 +4374,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H191" s="21"/>
+      <c r="H191" s="20"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
@@ -4492,7 +4393,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H192" s="21"/>
+      <c r="H192" s="20"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
@@ -4511,7 +4412,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H193" s="21"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
@@ -4530,7 +4431,7 @@
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="H194" s="21"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="9"/>
@@ -4549,7 +4450,7 @@
         <f t="shared" ref="G195:G258" si="11">VLOOKUP(H195,Tabla_ER,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="H195" s="21"/>
+      <c r="H195" s="20"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
@@ -4568,7 +4469,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H196" s="21"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="9"/>
@@ -4587,7 +4488,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H197" s="21"/>
+      <c r="H197" s="20"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
@@ -4606,7 +4507,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H198" s="21"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="9"/>
@@ -4625,7 +4526,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H199" s="21"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
@@ -4644,7 +4545,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H200" s="21"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9"/>
@@ -4663,7 +4564,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H201" s="21"/>
+      <c r="H201" s="20"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
@@ -4682,7 +4583,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H202" s="21"/>
+      <c r="H202" s="20"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
@@ -4701,7 +4602,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H203" s="21"/>
+      <c r="H203" s="20"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
@@ -4720,7 +4621,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H204" s="21"/>
+      <c r="H204" s="20"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
@@ -4739,7 +4640,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H205" s="21"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
@@ -4758,7 +4659,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H206" s="21"/>
+      <c r="H206" s="20"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="9"/>
@@ -4777,7 +4678,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H207" s="21"/>
+      <c r="H207" s="20"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
@@ -4796,7 +4697,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H208" s="21"/>
+      <c r="H208" s="20"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="9"/>
@@ -4815,7 +4716,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H209" s="21"/>
+      <c r="H209" s="20"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="9"/>
@@ -4834,7 +4735,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H210" s="21"/>
+      <c r="H210" s="20"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="9"/>
@@ -4853,7 +4754,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H211" s="21"/>
+      <c r="H211" s="20"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
@@ -4872,7 +4773,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H212" s="21"/>
+      <c r="H212" s="20"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
@@ -4891,7 +4792,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H213" s="21"/>
+      <c r="H213" s="20"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
@@ -4910,7 +4811,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H214" s="21"/>
+      <c r="H214" s="20"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9"/>
@@ -4929,7 +4830,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H215" s="21"/>
+      <c r="H215" s="20"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
@@ -4948,7 +4849,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H216" s="21"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="9"/>
@@ -4967,7 +4868,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H217" s="21"/>
+      <c r="H217" s="20"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="9"/>
@@ -4986,7 +4887,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H218" s="21"/>
+      <c r="H218" s="20"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="9"/>
@@ -5005,7 +4906,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H219" s="21"/>
+      <c r="H219" s="20"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="9"/>
@@ -5024,7 +4925,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H220" s="21"/>
+      <c r="H220" s="20"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="9"/>
@@ -5043,7 +4944,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H221" s="21"/>
+      <c r="H221" s="20"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="9"/>
@@ -5062,7 +4963,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H222" s="21"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
@@ -5081,7 +4982,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H223" s="21"/>
+      <c r="H223" s="20"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
@@ -5100,7 +5001,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H224" s="21"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="9"/>
@@ -5119,7 +5020,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H225" s="21"/>
+      <c r="H225" s="20"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="9"/>
@@ -5138,7 +5039,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H226" s="21"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="9"/>
@@ -5157,7 +5058,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H227" s="21"/>
+      <c r="H227" s="20"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="9"/>
@@ -5176,7 +5077,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H228" s="21"/>
+      <c r="H228" s="20"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="9"/>
@@ -5195,7 +5096,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H229" s="21"/>
+      <c r="H229" s="20"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="9"/>
@@ -5214,7 +5115,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H230" s="21"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="9"/>
@@ -5233,7 +5134,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H231" s="21"/>
+      <c r="H231" s="20"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="9"/>
@@ -5252,7 +5153,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H232" s="21"/>
+      <c r="H232" s="20"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
@@ -5271,7 +5172,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H233" s="21"/>
+      <c r="H233" s="20"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9"/>
@@ -5290,7 +5191,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H234" s="21"/>
+      <c r="H234" s="20"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="9"/>
@@ -5309,7 +5210,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H235" s="21"/>
+      <c r="H235" s="20"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="9"/>
@@ -5328,7 +5229,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H236" s="21"/>
+      <c r="H236" s="20"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
@@ -5347,7 +5248,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H237" s="21"/>
+      <c r="H237" s="20"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="9"/>
@@ -5366,7 +5267,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H238" s="21"/>
+      <c r="H238" s="20"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="9"/>
@@ -5385,7 +5286,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H239" s="21"/>
+      <c r="H239" s="20"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="9"/>
@@ -5404,7 +5305,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H240" s="21"/>
+      <c r="H240" s="20"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="9"/>
@@ -5423,7 +5324,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H241" s="21"/>
+      <c r="H241" s="20"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="9"/>
@@ -5442,7 +5343,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H242" s="21"/>
+      <c r="H242" s="20"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
@@ -5461,7 +5362,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H243" s="21"/>
+      <c r="H243" s="20"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="9"/>
@@ -5480,7 +5381,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H244" s="21"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
@@ -5499,7 +5400,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H245" s="21"/>
+      <c r="H245" s="20"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="9"/>
@@ -5518,7 +5419,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H246" s="21"/>
+      <c r="H246" s="20"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="9"/>
@@ -5537,7 +5438,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H247" s="21"/>
+      <c r="H247" s="20"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="9"/>
@@ -5556,7 +5457,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H248" s="21"/>
+      <c r="H248" s="20"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9"/>
@@ -5575,7 +5476,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H249" s="21"/>
+      <c r="H249" s="20"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
@@ -5594,7 +5495,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H250" s="21"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="9"/>
@@ -5613,7 +5514,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H251" s="21"/>
+      <c r="H251" s="20"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="9"/>
@@ -5632,7 +5533,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H252" s="21"/>
+      <c r="H252" s="20"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
@@ -5651,7 +5552,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H253" s="21"/>
+      <c r="H253" s="20"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
@@ -5670,7 +5571,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H254" s="21"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="9"/>
@@ -5689,7 +5590,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H255" s="21"/>
+      <c r="H255" s="20"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="9"/>
@@ -5708,7 +5609,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H256" s="21"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="9"/>
@@ -5727,7 +5628,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H257" s="21"/>
+      <c r="H257" s="20"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="9"/>
@@ -5746,7 +5647,7 @@
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="H258" s="21"/>
+      <c r="H258" s="20"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
@@ -5762,10 +5663,10 @@
       <c r="E259" s="9"/>
       <c r="F259" s="15"/>
       <c r="G259" s="1" t="e">
-        <f t="shared" ref="G259:G322" si="14">VLOOKUP(H259,Tabla_ER,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H259" s="21"/>
+        <f t="shared" ref="G259:G311" si="14">VLOOKUP(H259,Tabla_ER,2,)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H259" s="20"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="9"/>
@@ -5784,7 +5685,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H260" s="21"/>
+      <c r="H260" s="20"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="9"/>
@@ -5803,7 +5704,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H261" s="21"/>
+      <c r="H261" s="20"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="9"/>
@@ -5822,7 +5723,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H262" s="21"/>
+      <c r="H262" s="20"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
@@ -5841,7 +5742,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H263" s="21"/>
+      <c r="H263" s="20"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="9"/>
@@ -5860,7 +5761,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H264" s="21"/>
+      <c r="H264" s="20"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="9"/>
@@ -5879,7 +5780,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H265" s="21"/>
+      <c r="H265" s="20"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="9"/>
@@ -5898,7 +5799,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H266" s="21"/>
+      <c r="H266" s="20"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="9"/>
@@ -5917,7 +5818,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H267" s="21"/>
+      <c r="H267" s="20"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
@@ -5936,7 +5837,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H268" s="21"/>
+      <c r="H268" s="20"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="9"/>
@@ -5955,7 +5856,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H269" s="21"/>
+      <c r="H269" s="20"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="9"/>
@@ -5974,7 +5875,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H270" s="21"/>
+      <c r="H270" s="20"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="9"/>
@@ -5993,7 +5894,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H271" s="21"/>
+      <c r="H271" s="20"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
@@ -6012,7 +5913,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H272" s="21"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
@@ -6031,7 +5932,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H273" s="21"/>
+      <c r="H273" s="20"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="9"/>
@@ -6050,7 +5951,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H274" s="21"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="9"/>
@@ -6069,7 +5970,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H275" s="21"/>
+      <c r="H275" s="20"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="9"/>
@@ -6088,7 +5989,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H276" s="21"/>
+      <c r="H276" s="20"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="9"/>
@@ -6107,7 +6008,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H277" s="21"/>
+      <c r="H277" s="20"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
@@ -6126,7 +6027,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H278" s="21"/>
+      <c r="H278" s="20"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="9"/>
@@ -6145,7 +6046,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H279" s="21"/>
+      <c r="H279" s="20"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="9"/>
@@ -6164,7 +6065,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H280" s="21"/>
+      <c r="H280" s="20"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="9"/>
@@ -6183,7 +6084,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H281" s="21"/>
+      <c r="H281" s="20"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="9"/>
@@ -6202,7 +6103,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H282" s="21"/>
+      <c r="H282" s="20"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
@@ -6221,7 +6122,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H283" s="21"/>
+      <c r="H283" s="20"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="9"/>
@@ -6240,7 +6141,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H284" s="21"/>
+      <c r="H284" s="20"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="9"/>
@@ -6259,7 +6160,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H285" s="21"/>
+      <c r="H285" s="20"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
@@ -6278,7 +6179,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H286" s="21"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="9"/>
@@ -6297,7 +6198,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H287" s="21"/>
+      <c r="H287" s="20"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="9"/>
@@ -6316,7 +6217,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H288" s="21"/>
+      <c r="H288" s="20"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="9"/>
@@ -6335,7 +6236,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H289" s="21"/>
+      <c r="H289" s="20"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="9"/>
@@ -6354,7 +6255,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H290" s="21"/>
+      <c r="H290" s="20"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
@@ -6373,7 +6274,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H291" s="21"/>
+      <c r="H291" s="20"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="9"/>
@@ -6392,7 +6293,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H292" s="21"/>
+      <c r="H292" s="20"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
@@ -6411,7 +6312,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H293" s="21"/>
+      <c r="H293" s="20"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="9"/>
@@ -6430,7 +6331,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H294" s="21"/>
+      <c r="H294" s="20"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="9"/>
@@ -6449,7 +6350,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H295" s="21"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="9"/>
@@ -6468,7 +6369,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H296" s="21"/>
+      <c r="H296" s="20"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="9"/>
@@ -6487,7 +6388,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H297" s="21"/>
+      <c r="H297" s="20"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
@@ -6506,7 +6407,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H298" s="21"/>
+      <c r="H298" s="20"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="9"/>
@@ -6525,7 +6426,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H299" s="21"/>
+      <c r="H299" s="20"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="9"/>
@@ -6544,7 +6445,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H300" s="21"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="9"/>
@@ -6563,7 +6464,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H301" s="21"/>
+      <c r="H301" s="20"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="9"/>
@@ -6582,7 +6483,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H302" s="21"/>
+      <c r="H302" s="20"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
@@ -6601,7 +6502,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H303" s="21"/>
+      <c r="H303" s="20"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="9"/>
@@ -6620,7 +6521,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H304" s="21"/>
+      <c r="H304" s="20"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="9"/>
@@ -6639,7 +6540,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H305" s="21"/>
+      <c r="H305" s="20"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="9"/>
@@ -6658,7 +6559,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H306" s="21"/>
+      <c r="H306" s="20"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
@@ -6677,7 +6578,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H307" s="21"/>
+      <c r="H307" s="20"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="9"/>
@@ -6696,7 +6597,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H308" s="21"/>
+      <c r="H308" s="20"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
@@ -6715,7 +6616,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H309" s="21"/>
+      <c r="H309" s="20"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="9"/>
@@ -6734,7 +6635,7 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H310" s="21"/>
+      <c r="H310" s="20"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="9"/>
@@ -6753,10 +6654,10 @@
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="H311" s="21"/>
+      <c r="H311" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tjOGl2R0AGvRlwr0ZdNnI1ezdowdTAFm2R2FXn4K9zeKBTxKsTbrOPI0OPjSpTC6X8+MmH9RPwxce1WOE6GGVA==" saltValue="cdoE9nYmjyBI1MK2S0pHmA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+vl7Tl9i6mC5Z2hP5idv8YGd7CFkRCUENQ6Lys8cmYrVeH+Ip5CYM/im3vzhKtg8yxPHhEiHeQSHprQFknbkvg==" saltValue="212Z9lkwqngkSfZMuI+yjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{6D2F6D80-F246-4203-A0F8-56A4031B2F0B}">
@@ -6829,10 +6730,10 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6856,7 +6757,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" s="16">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.2 Plantilla_Electrificacion_rural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992C41E-CADC-4C99-A642-7FC2CB515ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89906C-9E26-401B-88DC-7D05A3DB8C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2A4336DF-036F-4896-AF99-78CB4DC7A078}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
